--- a/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
+++ b/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DD58846-64CD-4B55-A38D-87AE041D592D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4EFCCC9-3CF9-492F-8C80-FA496590C103}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="6890" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1020">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -2856,9 +2856,6 @@
   </si>
   <si>
     <t>Lobophytum</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
   <si>
     <t>ZOO</t>
@@ -9048,8 +9045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9111,7 +9108,7 @@
         <v>901</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>895</v>
@@ -9157,13 +9154,13 @@
         <v>930</v>
       </c>
       <c r="K2" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>1003</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>1004</v>
-      </c>
       <c r="M2" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
@@ -9641,10 +9638,10 @@
         <v>906</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -10013,10 +10010,10 @@
         <v>934</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
@@ -10336,13 +10333,13 @@
         <v>940</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M31" s="62" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
@@ -10572,7 +10569,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -10849,10 +10846,10 @@
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L44" s="20" t="s">
         <v>921</v>
@@ -11051,7 +11048,7 @@
         <v>79</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J49" s="16"/>
       <c r="L49" s="20"/>
@@ -11239,8 +11236,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>942</v>
+      <c r="H54" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="I54" s="39"/>
       <c r="J54" s="21"/>
@@ -11506,10 +11503,10 @@
         <v>33</v>
       </c>
       <c r="H61" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="I61" s="22" t="s">
         <v>947</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>948</v>
       </c>
       <c r="J61" s="21"/>
       <c r="L61" s="20"/>
@@ -11870,7 +11867,7 @@
         <v>909</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>909</v>
@@ -11958,7 +11955,7 @@
         <v>909</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>909</v>
@@ -12007,7 +12004,7 @@
         <v>909</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>909</v>
@@ -12571,10 +12568,10 @@
         <v>918</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N87" s="37"/>
       <c r="O87" s="37"/>
@@ -12659,10 +12656,10 @@
         <v>918</v>
       </c>
       <c r="L89" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
@@ -12899,7 +12896,7 @@
         <v>912</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>912</v>
@@ -13103,7 +13100,7 @@
         <v>79</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J100" s="21"/>
       <c r="L100" s="20"/>
@@ -13181,7 +13178,7 @@
         <v>79</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J102" s="21"/>
       <c r="L102" s="20"/>
@@ -13838,7 +13835,7 @@
         <v>101</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L121" s="41" t="s">
         <v>921</v>
@@ -13982,10 +13979,10 @@
         <v>906</v>
       </c>
       <c r="L125" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M125" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="S125" s="37"/>
       <c r="T125" s="37"/>
@@ -14054,7 +14051,7 @@
         <v>118</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L127" s="18" t="s">
         <v>921</v>
@@ -14129,7 +14126,7 @@
         <v>123</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L129" s="18" t="s">
         <v>921</v>
@@ -14204,13 +14201,13 @@
         <v>127</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L131" s="41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M131" s="62" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="S131" s="37"/>
       <c r="T131" s="37"/>
@@ -14610,7 +14607,7 @@
       </c>
       <c r="I143" s="56"/>
       <c r="J143" s="56" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K143" s="18" t="s">
         <v>912</v>
@@ -14652,16 +14649,16 @@
       </c>
       <c r="I144" s="56"/>
       <c r="J144" s="56" t="s">
+        <v>978</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="K144" s="18" t="s">
+      <c r="L144" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="L144" s="18" t="s">
-        <v>981</v>
-      </c>
       <c r="M144" s="18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N144" s="37"/>
       <c r="O144" s="37"/>
@@ -14699,7 +14696,7 @@
       </c>
       <c r="I145" s="56"/>
       <c r="J145" s="56" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K145" s="18"/>
       <c r="L145" s="18"/>
@@ -14779,7 +14776,7 @@
       </c>
       <c r="I147" s="56"/>
       <c r="J147" s="56" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K147" s="18"/>
       <c r="L147" s="18"/>
@@ -14819,7 +14816,7 @@
         <v>73</v>
       </c>
       <c r="I148" s="56" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J148" s="56"/>
       <c r="K148" s="18"/>
@@ -14860,7 +14857,7 @@
         <v>69</v>
       </c>
       <c r="I149" s="56" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J149" s="56"/>
       <c r="K149" s="18"/>
@@ -14982,10 +14979,10 @@
       </c>
       <c r="I152" s="56"/>
       <c r="J152" s="56" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L152" s="18" t="s">
         <v>921</v>
@@ -15028,7 +15025,7 @@
         <v>73</v>
       </c>
       <c r="I153" s="56" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J153" s="56"/>
       <c r="K153" s="18"/>
@@ -15070,7 +15067,7 @@
       </c>
       <c r="I154" s="56"/>
       <c r="J154" s="56" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K154" s="18"/>
       <c r="L154" s="18"/>
@@ -15150,7 +15147,7 @@
       </c>
       <c r="I156" s="56"/>
       <c r="J156" s="56" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K156" s="18" t="s">
         <v>912</v>
@@ -15197,16 +15194,16 @@
       </c>
       <c r="I157" s="56"/>
       <c r="J157" s="56" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K157" s="18" t="s">
         <v>918</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M157" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N157" s="37"/>
       <c r="O157" s="37"/>
@@ -15283,7 +15280,7 @@
       </c>
       <c r="I159" s="56"/>
       <c r="J159" s="56" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K159" s="18"/>
       <c r="L159" s="18"/>
@@ -15362,7 +15359,7 @@
         <v>73</v>
       </c>
       <c r="I161" s="56" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J161" s="56"/>
       <c r="K161" s="18"/>
@@ -15599,7 +15596,7 @@
       </c>
       <c r="I167" s="56"/>
       <c r="J167" s="56" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
@@ -15912,7 +15909,7 @@
         <v>73</v>
       </c>
       <c r="I175" s="56" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J175" s="56"/>
       <c r="K175" s="18"/>
@@ -15995,16 +15992,16 @@
       </c>
       <c r="I177" s="56"/>
       <c r="J177" s="56" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K177" s="18" t="s">
         <v>907</v>
       </c>
       <c r="L177" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M177" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N177" s="37"/>
       <c r="O177" s="37"/>
@@ -16120,7 +16117,7 @@
       </c>
       <c r="I180" s="56"/>
       <c r="J180" s="56" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K180" s="18" t="s">
         <v>913</v>
@@ -16206,16 +16203,16 @@
       </c>
       <c r="I182" s="56"/>
       <c r="J182" s="56" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K182" s="18" t="s">
         <v>913</v>
       </c>
       <c r="L182" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M182" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="N182" s="37"/>
       <c r="O182" s="37"/>
@@ -16291,7 +16288,7 @@
         <v>73</v>
       </c>
       <c r="I184" s="56" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J184" s="56"/>
       <c r="K184" s="18"/>
@@ -16528,7 +16525,7 @@
       </c>
       <c r="I190" s="56"/>
       <c r="J190" s="56" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
@@ -16685,7 +16682,7 @@
         <v>73</v>
       </c>
       <c r="I194" s="56" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J194" s="56"/>
       <c r="K194" s="18"/>
@@ -16766,7 +16763,7 @@
       </c>
       <c r="I196" s="56"/>
       <c r="J196" s="56" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K196" s="18" t="s">
         <v>912</v>
@@ -16852,7 +16849,7 @@
       </c>
       <c r="I198" s="56"/>
       <c r="J198" s="56" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K198" s="18" t="s">
         <v>913</v>
@@ -16938,7 +16935,7 @@
       </c>
       <c r="I200" s="56"/>
       <c r="J200" s="56" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K200" s="18" t="s">
         <v>913</v>
@@ -17024,7 +17021,7 @@
       </c>
       <c r="I202" s="56"/>
       <c r="J202" s="56" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K202" s="18" t="s">
         <v>913</v>
@@ -17109,7 +17106,7 @@
         <v>73</v>
       </c>
       <c r="I204" s="56" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J204" s="56"/>
       <c r="K204" s="18"/>
@@ -17229,16 +17226,16 @@
       </c>
       <c r="I207" s="56"/>
       <c r="J207" s="56" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K207" s="18" t="s">
         <v>918</v>
       </c>
       <c r="L207" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M207" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N207" s="37"/>
       <c r="O207" s="37"/>
@@ -17393,7 +17390,7 @@
       </c>
       <c r="I211" s="56"/>
       <c r="J211" s="56" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K211" s="18" t="s">
         <v>909</v>
@@ -17596,7 +17593,7 @@
       </c>
       <c r="I216" s="56"/>
       <c r="J216" s="56" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K216" s="18" t="s">
         <v>909</v>
@@ -17643,7 +17640,7 @@
       </c>
       <c r="I217" s="16"/>
       <c r="J217" s="56" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K217" s="18" t="s">
         <v>909</v>
@@ -17721,7 +17718,7 @@
         <v>6794</v>
       </c>
       <c r="G219" s="14">
-        <f>F220-F219</f>
+        <f t="shared" ref="G219:G226" si="6">F220-F219</f>
         <v>16</v>
       </c>
       <c r="H219" s="51" t="s">
@@ -17760,7 +17757,7 @@
         <v>6810</v>
       </c>
       <c r="G220" s="14">
-        <f>F221-F220</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="H220" s="51" t="s">
@@ -17768,7 +17765,7 @@
       </c>
       <c r="I220" s="16"/>
       <c r="J220" s="53" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K220" s="18" t="s">
         <v>909</v>
@@ -17807,7 +17804,7 @@
         <v>6849</v>
       </c>
       <c r="G221" s="14">
-        <f>F222-F221</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="H221" s="51" t="s">
@@ -17846,14 +17843,14 @@
         <v>6860</v>
       </c>
       <c r="G222" s="14">
-        <f>F223-F222</f>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="H222" s="51" t="s">
         <v>67</v>
       </c>
       <c r="I222" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J222" s="54"/>
       <c r="K222" s="18"/>
@@ -17887,7 +17884,7 @@
         <v>6928</v>
       </c>
       <c r="G223" s="15">
-        <f>F224-F223</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H223" s="51" t="s">
@@ -17926,7 +17923,7 @@
         <v>6936</v>
       </c>
       <c r="G224" s="15">
-        <f>F225-F224</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="H224" s="51" t="s">
@@ -17934,7 +17931,7 @@
       </c>
       <c r="I224" s="57"/>
       <c r="J224" s="59" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K224" s="18"/>
       <c r="L224" s="18"/>
@@ -17967,7 +17964,7 @@
         <v>6948</v>
       </c>
       <c r="G225" s="15">
-        <f>F226-F225</f>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="H225" s="51" t="s">
@@ -17975,7 +17972,7 @@
       </c>
       <c r="I225" s="57"/>
       <c r="J225" s="59" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K225" s="17"/>
       <c r="L225" s="18"/>
@@ -18008,7 +18005,7 @@
         <v>6997</v>
       </c>
       <c r="G226" s="15">
-        <f>F227-F226</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H226" s="51" t="s">
@@ -18016,7 +18013,7 @@
       </c>
       <c r="I226" s="57"/>
       <c r="J226" s="59" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K226" s="17"/>
       <c r="L226" s="18"/>
@@ -18083,7 +18080,7 @@
         <v>7500</v>
       </c>
       <c r="G228" s="15">
-        <f t="shared" ref="G228:G262" si="6">F229-F228</f>
+        <f t="shared" ref="G228:G262" si="7">F229-F228</f>
         <v>2</v>
       </c>
       <c r="H228" s="51" t="s">
@@ -18091,7 +18088,7 @@
       </c>
       <c r="I228" s="16"/>
       <c r="J228" s="53" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K228" s="18"/>
       <c r="M228" s="37"/>
@@ -18123,7 +18120,7 @@
         <v>7502</v>
       </c>
       <c r="G229" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="H229" s="51" t="s">
@@ -18131,7 +18128,7 @@
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="53" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K229" s="18"/>
       <c r="M229" s="37"/>
@@ -18163,7 +18160,7 @@
         <v>7539</v>
       </c>
       <c r="G230" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H230" s="51" t="s">
@@ -18171,16 +18168,16 @@
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K230" s="18" t="s">
         <v>906</v>
       </c>
       <c r="L230" s="61" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M230" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N230" s="37"/>
       <c r="O230" s="37"/>
@@ -18210,7 +18207,7 @@
         <v>7555</v>
       </c>
       <c r="G231" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H231" s="51" t="s">
@@ -18248,7 +18245,7 @@
         <v>7558</v>
       </c>
       <c r="G232" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H232" s="51" t="s">
@@ -18256,7 +18253,7 @@
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K232" s="18"/>
       <c r="M232" s="37"/>
@@ -18288,7 +18285,7 @@
         <v>7560</v>
       </c>
       <c r="G233" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H233" s="51" t="s">
@@ -18296,7 +18293,7 @@
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="53" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K233" s="18"/>
       <c r="M233" s="37"/>
@@ -18328,7 +18325,7 @@
         <v>7571</v>
       </c>
       <c r="G234" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>201</v>
       </c>
       <c r="H234" s="51" t="s">
@@ -18336,7 +18333,7 @@
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="53" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K234" s="18"/>
       <c r="M234" s="37"/>
@@ -18368,7 +18365,7 @@
         <v>7772</v>
       </c>
       <c r="G235" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="H235" s="51" t="s">
@@ -18376,16 +18373,16 @@
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K235" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L235" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M235" s="61" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N235" s="37"/>
       <c r="O235" s="37"/>
@@ -18415,7 +18412,7 @@
         <v>7782</v>
       </c>
       <c r="G236" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="H236" s="51" t="s">
@@ -18453,7 +18450,7 @@
         <v>7806</v>
       </c>
       <c r="G237" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H237" s="51" t="s">
@@ -18461,7 +18458,7 @@
       </c>
       <c r="I237" s="16"/>
       <c r="J237" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K237" s="18"/>
       <c r="M237" s="37"/>
@@ -18493,7 +18490,7 @@
         <v>7819</v>
       </c>
       <c r="G238" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H238" s="51" t="s">
@@ -18531,7 +18528,7 @@
         <v>7828</v>
       </c>
       <c r="G239" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="H239" s="51" t="s">
@@ -18539,7 +18536,7 @@
       </c>
       <c r="I239" s="16"/>
       <c r="J239" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K239" s="18"/>
       <c r="M239" s="37"/>
@@ -18571,7 +18568,7 @@
         <v>7835</v>
       </c>
       <c r="G240" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="H240" s="51" t="s">
@@ -18609,7 +18606,7 @@
         <v>7984</v>
       </c>
       <c r="G241" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H241" s="51" t="s">
@@ -18649,7 +18646,7 @@
         <v>7995</v>
       </c>
       <c r="G242" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="H242" s="51" t="s">
@@ -18687,7 +18684,7 @@
         <v>8220</v>
       </c>
       <c r="G243" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H243" s="51" t="s">
@@ -18725,7 +18722,7 @@
         <v>8235</v>
       </c>
       <c r="G244" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="H244" s="51" t="s">
@@ -18763,7 +18760,7 @@
         <v>8276</v>
       </c>
       <c r="G245" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H245" s="51" t="s">
@@ -18801,7 +18798,7 @@
         <v>8289</v>
       </c>
       <c r="G246" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="H246" s="51" t="s">
@@ -18839,7 +18836,7 @@
         <v>8336</v>
       </c>
       <c r="G247" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H247" s="51" t="s">
@@ -18849,7 +18846,7 @@
         <v>931</v>
       </c>
       <c r="J247" s="53" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K247" s="18"/>
       <c r="M247" s="14"/>
@@ -18881,7 +18878,7 @@
         <v>8349</v>
       </c>
       <c r="G248" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="H248" s="51" t="s">
@@ -18919,7 +18916,7 @@
         <v>8460</v>
       </c>
       <c r="G249" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H249" s="51" t="s">
@@ -18959,7 +18956,7 @@
         <v>8463</v>
       </c>
       <c r="G250" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="H250" s="51" t="s">
@@ -18997,7 +18994,7 @@
         <v>8480</v>
       </c>
       <c r="G251" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="H251" s="51" t="s">
@@ -19005,7 +19002,7 @@
       </c>
       <c r="I251" s="16"/>
       <c r="J251" s="53" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K251" s="18"/>
       <c r="M251" s="14"/>
@@ -19037,7 +19034,7 @@
         <v>8489</v>
       </c>
       <c r="G252" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="H252" s="51" t="s">
@@ -19045,7 +19042,7 @@
       </c>
       <c r="I252" s="16"/>
       <c r="J252" s="53" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K252" s="18"/>
       <c r="T252" s="37"/>
@@ -19070,7 +19067,7 @@
         <v>8615</v>
       </c>
       <c r="G253" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="H253" s="51" t="s">
@@ -19078,7 +19075,7 @@
       </c>
       <c r="I253" s="16"/>
       <c r="J253" s="53" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K253" s="18"/>
       <c r="M253" s="37"/>
@@ -19110,7 +19107,7 @@
         <v>8632</v>
       </c>
       <c r="G254" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="H254" s="51" t="s">
@@ -19148,7 +19145,7 @@
         <v>8805</v>
       </c>
       <c r="G255" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H255" s="51" t="s">
@@ -19186,7 +19183,7 @@
         <v>8810</v>
       </c>
       <c r="G256" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H256" s="51" t="s">
@@ -19224,7 +19221,7 @@
         <v>8815</v>
       </c>
       <c r="G257" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="H257" s="51" t="s">
@@ -19232,7 +19229,7 @@
       </c>
       <c r="I257" s="16"/>
       <c r="J257" s="53" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K257" s="18" t="s">
         <v>909</v>
@@ -19271,7 +19268,7 @@
         <v>8831</v>
       </c>
       <c r="G258" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="H258" s="51" t="s">
@@ -19309,7 +19306,7 @@
         <v>8986</v>
       </c>
       <c r="G259" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="H259" s="51" t="s">
@@ -19317,7 +19314,7 @@
       </c>
       <c r="I259" s="16"/>
       <c r="J259" s="53" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K259" s="18"/>
       <c r="M259" s="37"/>
@@ -19349,7 +19346,7 @@
         <v>8994</v>
       </c>
       <c r="G260" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>426</v>
       </c>
       <c r="H260" s="51" t="s">
@@ -19357,7 +19354,7 @@
       </c>
       <c r="I260" s="16"/>
       <c r="J260" s="53" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K260" s="18"/>
       <c r="M260" s="37"/>
@@ -19389,7 +19386,7 @@
         <v>9420</v>
       </c>
       <c r="G261" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="H261" s="51" t="s">
@@ -19399,7 +19396,7 @@
         <v>931</v>
       </c>
       <c r="J261" s="53" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K261" s="18"/>
       <c r="M261" s="37"/>
@@ -19431,7 +19428,7 @@
         <v>9495</v>
       </c>
       <c r="G262" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H262" s="51" t="s">
@@ -19439,7 +19436,7 @@
       </c>
       <c r="I262" s="16"/>
       <c r="J262" s="53" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K262" s="18" t="s">
         <v>912</v>
@@ -19550,7 +19547,7 @@
         <v>10036</v>
       </c>
       <c r="G265" s="14">
-        <f t="shared" ref="G265:G309" si="7">F266-F265</f>
+        <f t="shared" ref="G265:G309" si="8">F266-F265</f>
         <v>20</v>
       </c>
       <c r="H265" s="16" t="s">
@@ -19589,7 +19586,7 @@
         <v>10056</v>
       </c>
       <c r="G266" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H266" s="16" t="s">
@@ -19628,7 +19625,7 @@
         <v>10089</v>
       </c>
       <c r="G267" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="H267" s="16" t="s">
@@ -19639,13 +19636,13 @@
         <v>1154</v>
       </c>
       <c r="K267" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L267" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M267" s="63" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N267" s="37"/>
       <c r="O267" s="37"/>
@@ -19675,7 +19672,7 @@
         <v>10106</v>
       </c>
       <c r="G268" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="H268" s="16" t="s">
@@ -19714,7 +19711,7 @@
         <v>10141</v>
       </c>
       <c r="G269" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H269" s="16" t="s">
@@ -19755,7 +19752,7 @@
         <v>10159</v>
       </c>
       <c r="G270" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="H270" s="16" t="s">
@@ -19794,7 +19791,7 @@
         <v>10176</v>
       </c>
       <c r="G271" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H271" s="16" t="s">
@@ -19833,7 +19830,7 @@
         <v>10194</v>
       </c>
       <c r="G272" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="H272" s="16" t="s">
@@ -19874,7 +19871,7 @@
         <v>10223</v>
       </c>
       <c r="G273" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H273" s="51" t="s">
@@ -19915,7 +19912,7 @@
         <v>10227</v>
       </c>
       <c r="G274" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="H274" s="16" t="s">
@@ -19954,7 +19951,7 @@
         <v>10291</v>
       </c>
       <c r="G275" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H275" s="16" t="s">
@@ -20001,7 +19998,7 @@
         <v>10333</v>
       </c>
       <c r="G276" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H276" s="16" t="s">
@@ -20040,7 +20037,7 @@
         <v>10383</v>
       </c>
       <c r="G277" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="H277" s="16" t="s">
@@ -20079,7 +20076,7 @@
         <v>10438</v>
       </c>
       <c r="G278" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172</v>
       </c>
       <c r="H278" s="16" t="s">
@@ -20118,7 +20115,7 @@
         <v>10610</v>
       </c>
       <c r="G279" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="H279" s="16" t="s">
@@ -20245,7 +20242,7 @@
         <v>10728</v>
       </c>
       <c r="G282" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="H282" s="16" t="s">
@@ -20284,7 +20281,7 @@
         <v>10780</v>
       </c>
       <c r="G283" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="H283" s="16" t="s">
@@ -20404,7 +20401,7 @@
         <v>10830</v>
       </c>
       <c r="G286" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H286" s="16" t="s">
@@ -20415,13 +20412,13 @@
         <v>1169</v>
       </c>
       <c r="K286" s="18" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L286" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M286" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="N286" s="37"/>
       <c r="O286" s="37"/>
@@ -20451,7 +20448,7 @@
         <v>10854</v>
       </c>
       <c r="G287" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="H287" s="16" t="s">
@@ -20490,7 +20487,7 @@
         <v>10981</v>
       </c>
       <c r="G288" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H288" s="16" t="s">
@@ -20531,7 +20528,7 @@
         <v>10986</v>
       </c>
       <c r="G289" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="H289" s="16" t="s">
@@ -20570,7 +20567,7 @@
         <v>11045</v>
       </c>
       <c r="G290" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="H290" s="16" t="s">
@@ -20581,7 +20578,7 @@
         <v>1170</v>
       </c>
       <c r="K290" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L290" s="18" t="s">
         <v>921</v>
@@ -20617,7 +20614,7 @@
         <v>11087</v>
       </c>
       <c r="G291" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="H291" s="16" t="s">
@@ -20656,7 +20653,7 @@
         <v>11279</v>
       </c>
       <c r="G292" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="H292" s="16" t="s">
@@ -20670,10 +20667,10 @@
         <v>906</v>
       </c>
       <c r="L292" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M292" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N292" s="37"/>
       <c r="O292" s="37"/>
@@ -20703,7 +20700,7 @@
         <v>11314</v>
       </c>
       <c r="G293" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H293" s="16" t="s">
@@ -20742,7 +20739,7 @@
         <v>11335</v>
       </c>
       <c r="G294" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H294" s="16" t="s">
@@ -20781,7 +20778,7 @@
         <v>11342</v>
       </c>
       <c r="G295" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="H295" s="16" t="s">
@@ -20820,7 +20817,7 @@
         <v>11410</v>
       </c>
       <c r="G296" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="H296" s="16" t="s">
@@ -20859,7 +20856,7 @@
         <v>11466</v>
       </c>
       <c r="G297" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H297" s="51" t="s">
@@ -20900,7 +20897,7 @@
         <v>11471</v>
       </c>
       <c r="G298" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="H298" s="16" t="s">
@@ -20939,7 +20936,7 @@
         <v>11496</v>
       </c>
       <c r="G299" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="H299" s="16" t="s">
@@ -20986,7 +20983,7 @@
         <v>11507</v>
       </c>
       <c r="G300" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="H300" s="16" t="s">
@@ -21025,7 +21022,7 @@
         <v>11546</v>
       </c>
       <c r="G301" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H301" s="16" t="s">
@@ -21064,7 +21061,7 @@
         <v>11570</v>
       </c>
       <c r="G302" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="H302" s="16" t="s">
@@ -21103,7 +21100,7 @@
         <v>11585</v>
       </c>
       <c r="G303" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H303" s="16" t="s">
@@ -21114,7 +21111,7 @@
         <v>1176</v>
       </c>
       <c r="K303" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L303" s="17" t="s">
         <v>925</v>
@@ -21150,7 +21147,7 @@
         <v>11618</v>
       </c>
       <c r="G304" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="H304" s="16" t="s">
@@ -21189,7 +21186,7 @@
         <v>11684</v>
       </c>
       <c r="G305" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="H305" s="16" t="s">
@@ -21228,7 +21225,7 @@
         <v>11799</v>
       </c>
       <c r="G306" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="H306" s="16" t="s">
@@ -21275,7 +21272,7 @@
         <v>11836</v>
       </c>
       <c r="G307" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="H307" s="16" t="s">
@@ -21316,7 +21313,7 @@
         <v>11868</v>
       </c>
       <c r="G308" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="H308" s="16" t="s">
@@ -21355,7 +21352,7 @@
         <v>11996</v>
       </c>
       <c r="G309" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H309" s="16" t="s">

--- a/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
+++ b/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D4EFCCC9-3CF9-492F-8C80-FA496590C103}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58182DD9-2374-48A4-B9F3-5D507520AC61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="6890" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,10 @@
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="LN2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN2'!$A$1:$T$311</definedName>
+  </definedNames>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -9043,10 +9046,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9170,7 +9174,7 @@
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>927</v>
       </c>
@@ -9209,7 +9213,7 @@
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>927</v>
       </c>
@@ -9248,7 +9252,7 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>927</v>
       </c>
@@ -9289,7 +9293,7 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>927</v>
       </c>
@@ -9328,7 +9332,7 @@
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>927</v>
       </c>
@@ -9369,7 +9373,7 @@
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>927</v>
       </c>
@@ -9408,7 +9412,7 @@
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>927</v>
       </c>
@@ -9447,7 +9451,7 @@
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>927</v>
       </c>
@@ -9486,7 +9490,7 @@
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>927</v>
       </c>
@@ -9527,7 +9531,7 @@
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>927</v>
       </c>
@@ -9566,7 +9570,7 @@
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>927</v>
       </c>
@@ -9697,7 +9701,7 @@
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>927</v>
       </c>
@@ -9736,7 +9740,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>927</v>
       </c>
@@ -9775,7 +9779,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>927</v>
       </c>
@@ -9814,7 +9818,7 @@
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>927</v>
       </c>
@@ -9855,7 +9859,7 @@
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>927</v>
       </c>
@@ -9894,7 +9898,7 @@
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>927</v>
       </c>
@@ -9935,7 +9939,7 @@
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>927</v>
       </c>
@@ -10023,7 +10027,7 @@
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>927</v>
       </c>
@@ -10062,7 +10066,7 @@
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>927</v>
       </c>
@@ -10101,7 +10105,7 @@
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>927</v>
       </c>
@@ -10183,7 +10187,7 @@
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>927</v>
       </c>
@@ -10222,7 +10226,7 @@
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>927</v>
       </c>
@@ -10261,7 +10265,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>927</v>
       </c>
@@ -10349,7 +10353,7 @@
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>927</v>
       </c>
@@ -10388,7 +10392,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>927</v>
       </c>
@@ -10428,7 +10432,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>927</v>
       </c>
@@ -10467,7 +10471,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>927</v>
       </c>
@@ -10506,7 +10510,7 @@
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>927</v>
       </c>
@@ -10545,7 +10549,7 @@
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
         <v>927</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>927</v>
       </c>
@@ -10623,7 +10627,7 @@
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>927</v>
       </c>
@@ -10662,7 +10666,7 @@
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>927</v>
       </c>
@@ -10701,7 +10705,7 @@
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>927</v>
       </c>
@@ -10740,7 +10744,7 @@
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
         <v>927</v>
       </c>
@@ -10779,7 +10783,7 @@
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
         <v>927</v>
       </c>
@@ -10865,7 +10869,7 @@
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>927</v>
       </c>
@@ -10904,7 +10908,7 @@
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>927</v>
       </c>
@@ -10943,7 +10947,7 @@
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>927</v>
       </c>
@@ -10982,7 +10986,7 @@
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>927</v>
       </c>
@@ -11021,7 +11025,7 @@
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>927</v>
       </c>
@@ -11061,7 +11065,7 @@
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>927</v>
       </c>
@@ -11099,7 +11103,7 @@
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>927</v>
       </c>
@@ -11137,7 +11141,7 @@
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>927</v>
       </c>
@@ -11175,7 +11179,7 @@
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>927</v>
       </c>
@@ -11213,7 +11217,7 @@
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>927</v>
       </c>
@@ -11251,7 +11255,7 @@
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>927</v>
       </c>
@@ -11289,7 +11293,7 @@
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>927</v>
       </c>
@@ -11327,7 +11331,7 @@
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>927</v>
       </c>
@@ -11365,7 +11369,7 @@
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>927</v>
       </c>
@@ -11403,7 +11407,7 @@
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>927</v>
       </c>
@@ -11441,7 +11445,7 @@
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>927</v>
       </c>
@@ -11479,7 +11483,7 @@
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
         <v>927</v>
       </c>
@@ -11519,7 +11523,7 @@
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>927</v>
       </c>
@@ -11557,7 +11561,7 @@
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>927</v>
       </c>
@@ -11597,7 +11601,7 @@
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>927</v>
       </c>
@@ -11638,7 +11642,7 @@
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
         <v>927</v>
       </c>
@@ -11678,7 +11682,7 @@
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
         <v>927</v>
       </c>
@@ -11719,7 +11723,7 @@
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>927</v>
       </c>
@@ -11759,7 +11763,7 @@
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>927</v>
       </c>
@@ -11798,7 +11802,7 @@
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
         <v>927</v>
       </c>
@@ -11886,7 +11890,7 @@
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
         <v>927</v>
       </c>
@@ -12023,7 +12027,7 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>927</v>
       </c>
@@ -12062,7 +12066,7 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
         <v>927</v>
       </c>
@@ -12101,7 +12105,7 @@
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>927</v>
       </c>
@@ -12142,7 +12146,7 @@
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>927</v>
       </c>
@@ -12181,7 +12185,7 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>927</v>
       </c>
@@ -12220,7 +12224,7 @@
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
         <v>927</v>
       </c>
@@ -12259,7 +12263,7 @@
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>927</v>
       </c>
@@ -12298,7 +12302,7 @@
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
         <v>927</v>
       </c>
@@ -12337,7 +12341,7 @@
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>927</v>
       </c>
@@ -12376,7 +12380,7 @@
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
         <v>927</v>
       </c>
@@ -12415,7 +12419,7 @@
       <c r="S83" s="37"/>
       <c r="T83" s="37"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>927</v>
       </c>
@@ -12454,7 +12458,7 @@
       <c r="S84" s="37"/>
       <c r="T84" s="37"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>927</v>
       </c>
@@ -12493,7 +12497,7 @@
       <c r="S85" s="37"/>
       <c r="T85" s="37"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>927</v>
       </c>
@@ -12581,7 +12585,7 @@
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>927</v>
       </c>
@@ -12669,7 +12673,7 @@
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
         <v>927</v>
       </c>
@@ -12708,7 +12712,7 @@
       <c r="S90" s="37"/>
       <c r="T90" s="37"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>927</v>
       </c>
@@ -12747,7 +12751,7 @@
       <c r="S91" s="37"/>
       <c r="T91" s="37"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>927</v>
       </c>
@@ -12786,7 +12790,7 @@
       <c r="S92" s="37"/>
       <c r="T92" s="37"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>927</v>
       </c>
@@ -12825,7 +12829,7 @@
       <c r="S93" s="37"/>
       <c r="T93" s="37"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
         <v>927</v>
       </c>
@@ -12915,7 +12919,7 @@
       <c r="S95" s="37"/>
       <c r="T95" s="37"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
         <v>927</v>
       </c>
@@ -12954,7 +12958,7 @@
       <c r="S96" s="37"/>
       <c r="T96" s="37"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>927</v>
       </c>
@@ -12995,7 +12999,7 @@
       <c r="S97" s="37"/>
       <c r="T97" s="37"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>927</v>
       </c>
@@ -13034,7 +13038,7 @@
       <c r="S98" s="37"/>
       <c r="T98" s="37"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
         <v>927</v>
       </c>
@@ -13073,7 +13077,7 @@
       <c r="S99" s="37"/>
       <c r="T99" s="37"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
         <v>927</v>
       </c>
@@ -13113,7 +13117,7 @@
       <c r="S100" s="37"/>
       <c r="T100" s="37"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
         <v>927</v>
       </c>
@@ -13151,7 +13155,7 @@
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
         <v>927</v>
       </c>
@@ -13191,7 +13195,7 @@
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
         <v>927</v>
       </c>
@@ -13225,7 +13229,7 @@
       <c r="S103" s="37"/>
       <c r="T103" s="37"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
         <v>927</v>
       </c>
@@ -13258,7 +13262,7 @@
       <c r="S104" s="37"/>
       <c r="T104" s="37"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
         <v>927</v>
       </c>
@@ -13291,7 +13295,7 @@
       <c r="S105" s="37"/>
       <c r="T105" s="37"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
         <v>927</v>
       </c>
@@ -13324,7 +13328,7 @@
       <c r="S106" s="37"/>
       <c r="T106" s="37"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
         <v>927</v>
       </c>
@@ -13357,7 +13361,7 @@
       <c r="S107" s="37"/>
       <c r="T107" s="37"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35" t="s">
         <v>927</v>
       </c>
@@ -13390,7 +13394,7 @@
       <c r="S108" s="37"/>
       <c r="T108" s="37"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35" t="s">
         <v>927</v>
       </c>
@@ -13423,7 +13427,7 @@
       <c r="S109" s="37"/>
       <c r="T109" s="37"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35" t="s">
         <v>927</v>
       </c>
@@ -13456,7 +13460,7 @@
       <c r="S110" s="37"/>
       <c r="T110" s="37"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="35" t="s">
         <v>927</v>
       </c>
@@ -13489,7 +13493,7 @@
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>927</v>
       </c>
@@ -13522,7 +13526,7 @@
       <c r="S112" s="37"/>
       <c r="T112" s="37"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35" t="s">
         <v>927</v>
       </c>
@@ -13555,7 +13559,7 @@
       <c r="S113" s="37"/>
       <c r="T113" s="37"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35" t="s">
         <v>927</v>
       </c>
@@ -13588,7 +13592,7 @@
       <c r="S114" s="37"/>
       <c r="T114" s="37"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35" t="s">
         <v>927</v>
       </c>
@@ -13663,7 +13667,7 @@
       <c r="S116" s="37"/>
       <c r="T116" s="37"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
         <v>927</v>
       </c>
@@ -13696,7 +13700,7 @@
       <c r="S117" s="37"/>
       <c r="T117" s="37"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
         <v>927</v>
       </c>
@@ -13729,7 +13733,7 @@
       <c r="S118" s="37"/>
       <c r="T118" s="37"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
         <v>927</v>
       </c>
@@ -13846,7 +13850,7 @@
       <c r="S121" s="37"/>
       <c r="T121" s="37"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
         <v>927</v>
       </c>
@@ -13879,7 +13883,7 @@
       <c r="S122" s="37"/>
       <c r="T122" s="37"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
         <v>927</v>
       </c>
@@ -13912,7 +13916,7 @@
       <c r="S123" s="37"/>
       <c r="T123" s="37"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="35" t="s">
         <v>927</v>
       </c>
@@ -13987,7 +13991,7 @@
       <c r="S125" s="37"/>
       <c r="T125" s="37"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
         <v>927</v>
       </c>
@@ -14062,7 +14066,7 @@
       <c r="S127" s="37"/>
       <c r="T127" s="37"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
         <v>927</v>
       </c>
@@ -14137,7 +14141,7 @@
       <c r="S129" s="37"/>
       <c r="T129" s="37"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
         <v>927</v>
       </c>
@@ -14212,7 +14216,7 @@
       <c r="S131" s="37"/>
       <c r="T131" s="37"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
         <v>927</v>
       </c>
@@ -14287,7 +14291,7 @@
       <c r="S133" s="37"/>
       <c r="T133" s="37"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35" t="s">
         <v>927</v>
       </c>
@@ -14320,7 +14324,7 @@
       <c r="S134" s="37"/>
       <c r="T134" s="37"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35" t="s">
         <v>927</v>
       </c>
@@ -14353,7 +14357,7 @@
       <c r="S135" s="37"/>
       <c r="T135" s="37"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35" t="s">
         <v>927</v>
       </c>
@@ -14386,7 +14390,7 @@
       <c r="S136" s="37"/>
       <c r="T136" s="37"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35" t="s">
         <v>927</v>
       </c>
@@ -14419,7 +14423,7 @@
       <c r="S137" s="37"/>
       <c r="T137" s="37"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35" t="s">
         <v>927</v>
       </c>
@@ -14452,7 +14456,7 @@
       <c r="S138" s="37"/>
       <c r="T138" s="37"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
         <v>927</v>
       </c>
@@ -14485,7 +14489,7 @@
       <c r="S139" s="37"/>
       <c r="T139" s="37"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35" t="s">
         <v>927</v>
       </c>
@@ -14518,7 +14522,7 @@
       <c r="S140" s="37"/>
       <c r="T140" s="37"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35" t="s">
         <v>927</v>
       </c>
@@ -14551,7 +14555,7 @@
       <c r="S141" s="37"/>
       <c r="T141" s="37"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35" t="s">
         <v>927</v>
       </c>
@@ -14668,7 +14672,7 @@
       <c r="S144" s="37"/>
       <c r="T144" s="37"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35" t="s">
         <v>927</v>
       </c>
@@ -14709,7 +14713,7 @@
       <c r="S145" s="37"/>
       <c r="T145" s="37"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="35" t="s">
         <v>927</v>
       </c>
@@ -14748,7 +14752,7 @@
       <c r="S146" s="37"/>
       <c r="T146" s="37"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="35" t="s">
         <v>927</v>
       </c>
@@ -14789,7 +14793,7 @@
       <c r="S147" s="37"/>
       <c r="T147" s="37"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="35" t="s">
         <v>927</v>
       </c>
@@ -14830,7 +14834,7 @@
       <c r="S148" s="37"/>
       <c r="T148" s="37"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="35" t="s">
         <v>927</v>
       </c>
@@ -14871,7 +14875,7 @@
       <c r="S149" s="37"/>
       <c r="T149" s="37"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
         <v>927</v>
       </c>
@@ -14912,7 +14916,7 @@
       <c r="S150" s="37"/>
       <c r="T150" s="37"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="35" t="s">
         <v>927</v>
       </c>
@@ -14998,7 +15002,7 @@
       <c r="S152" s="37"/>
       <c r="T152" s="37"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="35" t="s">
         <v>927</v>
       </c>
@@ -15039,7 +15043,7 @@
       <c r="S153" s="37"/>
       <c r="T153" s="37"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="35" t="s">
         <v>927</v>
       </c>
@@ -15080,7 +15084,7 @@
       <c r="S154" s="37"/>
       <c r="T154" s="37"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="35" t="s">
         <v>927</v>
       </c>
@@ -15213,7 +15217,7 @@
       <c r="S157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="35" t="s">
         <v>927</v>
       </c>
@@ -15252,7 +15256,7 @@
       <c r="S158" s="37"/>
       <c r="T158" s="37"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="35" t="s">
         <v>927</v>
       </c>
@@ -15293,7 +15297,7 @@
       <c r="S159" s="37"/>
       <c r="T159" s="37"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="35" t="s">
         <v>927</v>
       </c>
@@ -15332,7 +15336,7 @@
       <c r="S160" s="37"/>
       <c r="T160" s="37"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="35" t="s">
         <v>927</v>
       </c>
@@ -15373,7 +15377,7 @@
       <c r="S161" s="37"/>
       <c r="T161" s="37"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="35" t="s">
         <v>927</v>
       </c>
@@ -15412,7 +15416,7 @@
       <c r="S162" s="37"/>
       <c r="T162" s="37"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="35" t="s">
         <v>927</v>
       </c>
@@ -15451,7 +15455,7 @@
       <c r="S163" s="37"/>
       <c r="T163" s="37"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="35" t="s">
         <v>927</v>
       </c>
@@ -15490,7 +15494,7 @@
       <c r="S164" s="37"/>
       <c r="T164" s="37"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="35" t="s">
         <v>927</v>
       </c>
@@ -15529,7 +15533,7 @@
       <c r="S165" s="37"/>
       <c r="T165" s="37"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
         <v>927</v>
       </c>
@@ -15568,7 +15572,7 @@
       <c r="S166" s="37"/>
       <c r="T166" s="37"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="35" t="s">
         <v>927</v>
       </c>
@@ -15609,7 +15613,7 @@
       <c r="S167" s="37"/>
       <c r="T167" s="37"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="35" t="s">
         <v>927</v>
       </c>
@@ -15648,7 +15652,7 @@
       <c r="S168" s="37"/>
       <c r="T168" s="37"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="35" t="s">
         <v>927</v>
       </c>
@@ -15687,7 +15691,7 @@
       <c r="S169" s="37"/>
       <c r="T169" s="37"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="35" t="s">
         <v>927</v>
       </c>
@@ -15726,7 +15730,7 @@
       <c r="S170" s="37"/>
       <c r="T170" s="37"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="35" t="s">
         <v>927</v>
       </c>
@@ -15765,7 +15769,7 @@
       <c r="S171" s="37"/>
       <c r="T171" s="37"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="35" t="s">
         <v>927</v>
       </c>
@@ -15804,7 +15808,7 @@
       <c r="S172" s="37"/>
       <c r="T172" s="37"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
         <v>927</v>
       </c>
@@ -15843,7 +15847,7 @@
       <c r="S173" s="37"/>
       <c r="T173" s="37"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="35" t="s">
         <v>927</v>
       </c>
@@ -15882,7 +15886,7 @@
       <c r="S174" s="37"/>
       <c r="T174" s="37"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="35" t="s">
         <v>927</v>
       </c>
@@ -15923,7 +15927,7 @@
       <c r="S175" s="37"/>
       <c r="T175" s="37"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="35" t="s">
         <v>927</v>
       </c>
@@ -16011,7 +16015,7 @@
       <c r="S177" s="37"/>
       <c r="T177" s="37"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="35" t="s">
         <v>927</v>
       </c>
@@ -16050,7 +16054,7 @@
       <c r="S178" s="37"/>
       <c r="T178" s="37"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="35" t="s">
         <v>927</v>
       </c>
@@ -16136,7 +16140,7 @@
       <c r="S180" s="37"/>
       <c r="T180" s="37"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
         <v>927</v>
       </c>
@@ -16222,7 +16226,7 @@
       <c r="S182" s="37"/>
       <c r="T182" s="37"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="35" t="s">
         <v>927</v>
       </c>
@@ -16261,7 +16265,7 @@
       <c r="S183" s="37"/>
       <c r="T183" s="37"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="35" t="s">
         <v>927</v>
       </c>
@@ -16302,7 +16306,7 @@
       <c r="S184" s="37"/>
       <c r="T184" s="37"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="35" t="s">
         <v>927</v>
       </c>
@@ -16341,7 +16345,7 @@
       <c r="S185" s="37"/>
       <c r="T185" s="37"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="35" t="s">
         <v>927</v>
       </c>
@@ -16380,7 +16384,7 @@
       <c r="S186" s="37"/>
       <c r="T186" s="37"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="35" t="s">
         <v>927</v>
       </c>
@@ -16419,7 +16423,7 @@
       <c r="S187" s="37"/>
       <c r="T187" s="37"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="35" t="s">
         <v>927</v>
       </c>
@@ -16458,7 +16462,7 @@
       <c r="S188" s="37"/>
       <c r="T188" s="37"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="35" t="s">
         <v>927</v>
       </c>
@@ -16497,7 +16501,7 @@
       <c r="S189" s="37"/>
       <c r="T189" s="37"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="35" t="s">
         <v>927</v>
       </c>
@@ -16538,7 +16542,7 @@
       <c r="S190" s="37"/>
       <c r="T190" s="37"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35" t="s">
         <v>927</v>
       </c>
@@ -16577,7 +16581,7 @@
       <c r="S191" s="37"/>
       <c r="T191" s="37"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35" t="s">
         <v>927</v>
       </c>
@@ -16616,7 +16620,7 @@
       <c r="S192" s="37"/>
       <c r="T192" s="37"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35" t="s">
         <v>927</v>
       </c>
@@ -16655,7 +16659,7 @@
       <c r="S193" s="37"/>
       <c r="T193" s="37"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="35" t="s">
         <v>927</v>
       </c>
@@ -16696,7 +16700,7 @@
       <c r="S194" s="37"/>
       <c r="T194" s="37"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="35" t="s">
         <v>927</v>
       </c>
@@ -16782,7 +16786,7 @@
       <c r="S196" s="37"/>
       <c r="T196" s="37"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="35" t="s">
         <v>927</v>
       </c>
@@ -16868,7 +16872,7 @@
       <c r="S198" s="37"/>
       <c r="T198" s="37"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="35" t="s">
         <v>927</v>
       </c>
@@ -16954,7 +16958,7 @@
       <c r="S200" s="37"/>
       <c r="T200" s="37"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="35" t="s">
         <v>927</v>
       </c>
@@ -17040,7 +17044,7 @@
       <c r="S202" s="37"/>
       <c r="T202" s="37"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="35" t="s">
         <v>927</v>
       </c>
@@ -17079,7 +17083,7 @@
       <c r="S203" s="37"/>
       <c r="T203" s="37"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="35" t="s">
         <v>927</v>
       </c>
@@ -17120,7 +17124,7 @@
       <c r="S204" s="37"/>
       <c r="T204" s="37"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="35" t="s">
         <v>927</v>
       </c>
@@ -17159,7 +17163,7 @@
       <c r="S205" s="37"/>
       <c r="T205" s="37"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="35" t="s">
         <v>927</v>
       </c>
@@ -17245,7 +17249,7 @@
       <c r="S207" s="37"/>
       <c r="T207" s="37"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="35" t="s">
         <v>927</v>
       </c>
@@ -17284,7 +17288,7 @@
       <c r="S208" s="37"/>
       <c r="T208" s="37"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="35" t="s">
         <v>927</v>
       </c>
@@ -17323,7 +17327,7 @@
       <c r="S209" s="37"/>
       <c r="T209" s="37"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="35" t="s">
         <v>927</v>
       </c>
@@ -17409,7 +17413,7 @@
       <c r="S211" s="37"/>
       <c r="T211" s="37"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="35" t="s">
         <v>927</v>
       </c>
@@ -17448,7 +17452,7 @@
       <c r="S212" s="37"/>
       <c r="T212" s="37"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="35" t="s">
         <v>927</v>
       </c>
@@ -17487,7 +17491,7 @@
       <c r="S213" s="37"/>
       <c r="T213" s="37"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="35" t="s">
         <v>927</v>
       </c>
@@ -17526,7 +17530,7 @@
       <c r="S214" s="37"/>
       <c r="T214" s="37"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="35" t="s">
         <v>927</v>
       </c>
@@ -17659,7 +17663,7 @@
       <c r="S217" s="37"/>
       <c r="T217" s="37"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="35" t="s">
         <v>927</v>
       </c>
@@ -17698,7 +17702,7 @@
       <c r="S218" s="37"/>
       <c r="T218" s="37"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="35" t="s">
         <v>927</v>
       </c>
@@ -17784,7 +17788,7 @@
       <c r="S220" s="37"/>
       <c r="T220" s="37"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="35" t="s">
         <v>927</v>
       </c>
@@ -17823,7 +17827,7 @@
       <c r="S221" s="37"/>
       <c r="T221" s="37"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="35" t="s">
         <v>927</v>
       </c>
@@ -17864,7 +17868,7 @@
       <c r="S222" s="37"/>
       <c r="T222" s="37"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="35" t="s">
         <v>927</v>
       </c>
@@ -17903,7 +17907,7 @@
       <c r="S223" s="37"/>
       <c r="T223" s="37"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="35" t="s">
         <v>927</v>
       </c>
@@ -17944,7 +17948,7 @@
       <c r="S224" s="37"/>
       <c r="T224" s="37"/>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="35" t="s">
         <v>927</v>
       </c>
@@ -17985,7 +17989,7 @@
       <c r="S225" s="37"/>
       <c r="T225" s="37"/>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="35" t="s">
         <v>927</v>
       </c>
@@ -18026,7 +18030,7 @@
       <c r="S226" s="37"/>
       <c r="T226" s="37"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="35" t="s">
         <v>927</v>
       </c>
@@ -18060,7 +18064,7 @@
       <c r="S227" s="37"/>
       <c r="T227" s="37"/>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="35" t="s">
         <v>927</v>
       </c>
@@ -18100,7 +18104,7 @@
       <c r="S228" s="37"/>
       <c r="T228" s="37"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="35" t="s">
         <v>927</v>
       </c>
@@ -18187,7 +18191,7 @@
       <c r="S230" s="37"/>
       <c r="T230" s="37"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="35" t="s">
         <v>927</v>
       </c>
@@ -18225,7 +18229,7 @@
       <c r="S231" s="37"/>
       <c r="T231" s="37"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="35" t="s">
         <v>927</v>
       </c>
@@ -18265,7 +18269,7 @@
       <c r="S232" s="37"/>
       <c r="T232" s="37"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="35" t="s">
         <v>927</v>
       </c>
@@ -18305,7 +18309,7 @@
       <c r="S233" s="37"/>
       <c r="T233" s="37"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="35" t="s">
         <v>927</v>
       </c>
@@ -18392,7 +18396,7 @@
       <c r="S235" s="37"/>
       <c r="T235" s="37"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="35" t="s">
         <v>927</v>
       </c>
@@ -18430,7 +18434,7 @@
       <c r="S236" s="37"/>
       <c r="T236" s="37"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="35" t="s">
         <v>927</v>
       </c>
@@ -18470,7 +18474,7 @@
       <c r="S237" s="37"/>
       <c r="T237" s="37"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="35" t="s">
         <v>927</v>
       </c>
@@ -18508,7 +18512,7 @@
       <c r="S238" s="37"/>
       <c r="T238" s="37"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="35" t="s">
         <v>927</v>
       </c>
@@ -18548,7 +18552,7 @@
       <c r="S239" s="37"/>
       <c r="T239" s="37"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="35" t="s">
         <v>927</v>
       </c>
@@ -18586,7 +18590,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="37"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="35" t="s">
         <v>927</v>
       </c>
@@ -18626,7 +18630,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="37"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="35" t="s">
         <v>927</v>
       </c>
@@ -18664,7 +18668,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="37"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="35" t="s">
         <v>927</v>
       </c>
@@ -18702,7 +18706,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="37"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="35" t="s">
         <v>927</v>
       </c>
@@ -18740,7 +18744,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="37"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="35" t="s">
         <v>927</v>
       </c>
@@ -18778,7 +18782,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="37"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="35" t="s">
         <v>927</v>
       </c>
@@ -18816,7 +18820,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="37"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="35" t="s">
         <v>927</v>
       </c>
@@ -18858,7 +18862,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="37"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="35" t="s">
         <v>927</v>
       </c>
@@ -18896,7 +18900,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="37"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="35" t="s">
         <v>927</v>
       </c>
@@ -18936,7 +18940,7 @@
       <c r="S249" s="18"/>
       <c r="T249" s="37"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="35" t="s">
         <v>927</v>
       </c>
@@ -18974,7 +18978,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="37"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="35" t="s">
         <v>927</v>
       </c>
@@ -19014,7 +19018,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="37"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="35" t="s">
         <v>927</v>
       </c>
@@ -19047,7 +19051,7 @@
       <c r="K252" s="18"/>
       <c r="T252" s="37"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="35" t="s">
         <v>927</v>
       </c>
@@ -19087,7 +19091,7 @@
       <c r="S253" s="37"/>
       <c r="T253" s="37"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="35" t="s">
         <v>927</v>
       </c>
@@ -19125,7 +19129,7 @@
       <c r="S254" s="37"/>
       <c r="T254" s="37"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="35" t="s">
         <v>927</v>
       </c>
@@ -19163,7 +19167,7 @@
       <c r="S255" s="37"/>
       <c r="T255" s="37"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="35" t="s">
         <v>927</v>
       </c>
@@ -19248,7 +19252,7 @@
       <c r="S257" s="37"/>
       <c r="T257" s="37"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="35" t="s">
         <v>927</v>
       </c>
@@ -19286,7 +19290,7 @@
       <c r="S258" s="37"/>
       <c r="T258" s="37"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="35" t="s">
         <v>927</v>
       </c>
@@ -19326,7 +19330,7 @@
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="35" t="s">
         <v>927</v>
       </c>
@@ -19366,7 +19370,7 @@
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="35" t="s">
         <v>927</v>
       </c>
@@ -19455,7 +19459,7 @@
       <c r="S262" s="37"/>
       <c r="T262" s="37"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="35" t="s">
         <v>927</v>
       </c>
@@ -19488,7 +19492,7 @@
       <c r="S263" s="37"/>
       <c r="T263" s="37"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="35" t="s">
         <v>927</v>
       </c>
@@ -19527,7 +19531,7 @@
       <c r="S264" s="37"/>
       <c r="T264" s="37"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="35" t="s">
         <v>927</v>
       </c>
@@ -19566,7 +19570,7 @@
       <c r="S265" s="37"/>
       <c r="T265" s="37"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="35" t="s">
         <v>927</v>
       </c>
@@ -19652,7 +19656,7 @@
       <c r="S267" s="37"/>
       <c r="T267" s="37"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="35" t="s">
         <v>927</v>
       </c>
@@ -19691,7 +19695,7 @@
       <c r="S268" s="37"/>
       <c r="T268" s="37"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="35" t="s">
         <v>927</v>
       </c>
@@ -19732,7 +19736,7 @@
       <c r="S269" s="37"/>
       <c r="T269" s="37"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="35" t="s">
         <v>927</v>
       </c>
@@ -19771,7 +19775,7 @@
       <c r="S270" s="37"/>
       <c r="T270" s="37"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="35" t="s">
         <v>927</v>
       </c>
@@ -19810,7 +19814,7 @@
       <c r="S271" s="37"/>
       <c r="T271" s="37"/>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="35" t="s">
         <v>927</v>
       </c>
@@ -19851,7 +19855,7 @@
       <c r="S272" s="37"/>
       <c r="T272" s="37"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="35" t="s">
         <v>927</v>
       </c>
@@ -19892,7 +19896,7 @@
       <c r="S273" s="37"/>
       <c r="T273" s="37"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="35" t="s">
         <v>927</v>
       </c>
@@ -19978,7 +19982,7 @@
       <c r="S275" s="37"/>
       <c r="T275" s="37"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="35" t="s">
         <v>927</v>
       </c>
@@ -20017,7 +20021,7 @@
       <c r="S276" s="37"/>
       <c r="T276" s="37"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="35" t="s">
         <v>927</v>
       </c>
@@ -20056,7 +20060,7 @@
       <c r="S277" s="37"/>
       <c r="T277" s="37"/>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="35" t="s">
         <v>927</v>
       </c>
@@ -20142,7 +20146,7 @@
       <c r="S279" s="37"/>
       <c r="T279" s="37"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="35" t="s">
         <v>927</v>
       </c>
@@ -20181,7 +20185,7 @@
       <c r="S280" s="37"/>
       <c r="T280" s="37"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="35" t="s">
         <v>927</v>
       </c>
@@ -20222,7 +20226,7 @@
       <c r="S281" s="37"/>
       <c r="T281" s="37"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="35" t="s">
         <v>927</v>
       </c>
@@ -20261,7 +20265,7 @@
       <c r="S282" s="37"/>
       <c r="T282" s="37"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="35" t="s">
         <v>927</v>
       </c>
@@ -20300,7 +20304,7 @@
       <c r="S283" s="37"/>
       <c r="T283" s="37"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="35" t="s">
         <v>927</v>
       </c>
@@ -20339,7 +20343,7 @@
       <c r="S284" s="37"/>
       <c r="T284" s="37"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="35" t="s">
         <v>927</v>
       </c>
@@ -20428,7 +20432,7 @@
       <c r="S286" s="37"/>
       <c r="T286" s="37"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="35" t="s">
         <v>927</v>
       </c>
@@ -20467,7 +20471,7 @@
       <c r="S287" s="37"/>
       <c r="T287" s="37"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="35" t="s">
         <v>927</v>
       </c>
@@ -20508,7 +20512,7 @@
       <c r="S288" s="37"/>
       <c r="T288" s="37"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="35" t="s">
         <v>927</v>
       </c>
@@ -20594,7 +20598,7 @@
       <c r="S290" s="37"/>
       <c r="T290" s="37"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="35" t="s">
         <v>927</v>
       </c>
@@ -20680,7 +20684,7 @@
       <c r="S292" s="37"/>
       <c r="T292" s="37"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="35" t="s">
         <v>927</v>
       </c>
@@ -20719,7 +20723,7 @@
       <c r="S293" s="37"/>
       <c r="T293" s="37"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="35" t="s">
         <v>927</v>
       </c>
@@ -20758,7 +20762,7 @@
       <c r="S294" s="37"/>
       <c r="T294" s="37"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="35" t="s">
         <v>927</v>
       </c>
@@ -20797,7 +20801,7 @@
       <c r="S295" s="37"/>
       <c r="T295" s="37"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="35" t="s">
         <v>927</v>
       </c>
@@ -20836,7 +20840,7 @@
       <c r="S296" s="37"/>
       <c r="T296" s="37"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="35" t="s">
         <v>927</v>
       </c>
@@ -20877,7 +20881,7 @@
       <c r="S297" s="37"/>
       <c r="T297" s="37"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="35" t="s">
         <v>927</v>
       </c>
@@ -20963,7 +20967,7 @@
       <c r="S299" s="37"/>
       <c r="T299" s="37"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="35" t="s">
         <v>927</v>
       </c>
@@ -21002,7 +21006,7 @@
       <c r="S300" s="37"/>
       <c r="T300" s="37"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="35" t="s">
         <v>927</v>
       </c>
@@ -21041,7 +21045,7 @@
       <c r="S301" s="37"/>
       <c r="T301" s="37"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="35" t="s">
         <v>927</v>
       </c>
@@ -21127,7 +21131,7 @@
       <c r="S303" s="37"/>
       <c r="T303" s="37"/>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="35" t="s">
         <v>927</v>
       </c>
@@ -21166,7 +21170,7 @@
       <c r="S304" s="37"/>
       <c r="T304" s="37"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="35" t="s">
         <v>927</v>
       </c>
@@ -21252,7 +21256,7 @@
       <c r="S306" s="37"/>
       <c r="T306" s="37"/>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="35" t="s">
         <v>927</v>
       </c>
@@ -21293,7 +21297,7 @@
       <c r="S307" s="37"/>
       <c r="T307" s="37"/>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="35" t="s">
         <v>927</v>
       </c>
@@ -21332,7 +21336,7 @@
       <c r="S308" s="37"/>
       <c r="T308" s="37"/>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="35" t="s">
         <v>927</v>
       </c>
@@ -21373,7 +21377,7 @@
       <c r="S309" s="37"/>
       <c r="T309" s="37"/>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="35" t="s">
         <v>927</v>
       </c>
@@ -21407,7 +21411,7 @@
       <c r="S310" s="37"/>
       <c r="T310" s="37"/>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="G311" s="24">
         <f>SUM(G2:G310)</f>
         <v>10000</v>
@@ -23563,6 +23567,13 @@
       <c r="T496" s="37"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T311" xr:uid="{E13AE4F8-AA0C-4A3E-AD8B-06064A1FBBBD}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
+++ b/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58182DD9-2374-48A4-B9F3-5D507520AC61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C83ACD61-6CC3-4620-823C-DA7D7D557D09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="6890" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1021">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -3134,6 +3134,9 @@
   <si>
     <t xml:space="preserve">Dipsastraea speciosa  </t>
   </si>
+  <si>
+    <t>Fungia sp.</t>
+  </si>
 </sst>
 </file>
 
@@ -3145,7 +3148,7 @@
     <numFmt numFmtId="166" formatCode="[$-14809]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3279,6 +3282,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3295,6 +3299,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3356,7 +3368,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3538,6 +3550,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9050,7 +9065,7 @@
   <dimension ref="A1:T496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -10178,7 +10193,9 @@
         <v>937</v>
       </c>
       <c r="L27" s="20"/>
-      <c r="M27" s="37"/>
+      <c r="M27" s="64" t="s">
+        <v>1020</v>
+      </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>

--- a/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
+++ b/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C83ACD61-6CC3-4620-823C-DA7D7D557D09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{055282DE-57F6-4D09-A9F7-EC9052CB85E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="6890" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
-    <sheet name="LN2" sheetId="3" r:id="rId3"/>
+    <sheet name="LN3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN2'!$A$1:$T$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LN3'!$A$1:$T$311</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -9061,11 +9061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9189,7 +9188,7 @@
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>927</v>
       </c>
@@ -9228,7 +9227,7 @@
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>927</v>
       </c>
@@ -9267,7 +9266,7 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>927</v>
       </c>
@@ -9308,7 +9307,7 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>927</v>
       </c>
@@ -9347,7 +9346,7 @@
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>927</v>
       </c>
@@ -9388,7 +9387,7 @@
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>927</v>
       </c>
@@ -9427,7 +9426,7 @@
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>927</v>
       </c>
@@ -9466,7 +9465,7 @@
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>927</v>
       </c>
@@ -9505,7 +9504,7 @@
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>927</v>
       </c>
@@ -9546,7 +9545,7 @@
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>927</v>
       </c>
@@ -9585,7 +9584,7 @@
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>927</v>
       </c>
@@ -9716,7 +9715,7 @@
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>927</v>
       </c>
@@ -9755,7 +9754,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>927</v>
       </c>
@@ -9794,7 +9793,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>927</v>
       </c>
@@ -9833,7 +9832,7 @@
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>927</v>
       </c>
@@ -9874,7 +9873,7 @@
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>927</v>
       </c>
@@ -9913,7 +9912,7 @@
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>927</v>
       </c>
@@ -9954,7 +9953,7 @@
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>927</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>927</v>
       </c>
@@ -10081,7 +10080,7 @@
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>927</v>
       </c>
@@ -10120,7 +10119,7 @@
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>927</v>
       </c>
@@ -10204,7 +10203,7 @@
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>927</v>
       </c>
@@ -10243,7 +10242,7 @@
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>927</v>
       </c>
@@ -10282,7 +10281,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>927</v>
       </c>
@@ -10370,7 +10369,7 @@
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>927</v>
       </c>
@@ -10409,7 +10408,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>927</v>
       </c>
@@ -10449,7 +10448,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>927</v>
       </c>
@@ -10488,7 +10487,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>927</v>
       </c>
@@ -10527,7 +10526,7 @@
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>927</v>
       </c>
@@ -10566,7 +10565,7 @@
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
         <v>927</v>
       </c>
@@ -10605,7 +10604,7 @@
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>927</v>
       </c>
@@ -10644,7 +10643,7 @@
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>927</v>
       </c>
@@ -10683,7 +10682,7 @@
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>927</v>
       </c>
@@ -10722,7 +10721,7 @@
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>927</v>
       </c>
@@ -10761,7 +10760,7 @@
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
         <v>927</v>
       </c>
@@ -10800,7 +10799,7 @@
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
         <v>927</v>
       </c>
@@ -10886,7 +10885,7 @@
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>927</v>
       </c>
@@ -10925,7 +10924,7 @@
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>927</v>
       </c>
@@ -10964,7 +10963,7 @@
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>927</v>
       </c>
@@ -11003,7 +11002,7 @@
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>927</v>
       </c>
@@ -11042,7 +11041,7 @@
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>927</v>
       </c>
@@ -11082,7 +11081,7 @@
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>927</v>
       </c>
@@ -11120,7 +11119,7 @@
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>927</v>
       </c>
@@ -11158,7 +11157,7 @@
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>927</v>
       </c>
@@ -11196,7 +11195,7 @@
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>927</v>
       </c>
@@ -11234,7 +11233,7 @@
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>927</v>
       </c>
@@ -11272,7 +11271,7 @@
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>927</v>
       </c>
@@ -11310,7 +11309,7 @@
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>927</v>
       </c>
@@ -11348,7 +11347,7 @@
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>927</v>
       </c>
@@ -11386,7 +11385,7 @@
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>927</v>
       </c>
@@ -11424,7 +11423,7 @@
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>927</v>
       </c>
@@ -11462,7 +11461,7 @@
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>927</v>
       </c>
@@ -11500,7 +11499,7 @@
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="35" t="s">
         <v>927</v>
       </c>
@@ -11540,7 +11539,7 @@
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>927</v>
       </c>
@@ -11578,7 +11577,7 @@
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>927</v>
       </c>
@@ -11618,7 +11617,7 @@
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>927</v>
       </c>
@@ -11659,7 +11658,7 @@
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
         <v>927</v>
       </c>
@@ -11699,7 +11698,7 @@
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
         <v>927</v>
       </c>
@@ -11740,7 +11739,7 @@
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>927</v>
       </c>
@@ -11780,7 +11779,7 @@
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>927</v>
       </c>
@@ -11819,7 +11818,7 @@
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
         <v>927</v>
       </c>
@@ -11907,7 +11906,7 @@
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
         <v>927</v>
       </c>
@@ -12044,7 +12043,7 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>927</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
         <v>927</v>
       </c>
@@ -12122,7 +12121,7 @@
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>927</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>927</v>
       </c>
@@ -12202,7 +12201,7 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>927</v>
       </c>
@@ -12241,7 +12240,7 @@
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
         <v>927</v>
       </c>
@@ -12280,7 +12279,7 @@
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>927</v>
       </c>
@@ -12319,7 +12318,7 @@
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
         <v>927</v>
       </c>
@@ -12358,7 +12357,7 @@
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>927</v>
       </c>
@@ -12397,7 +12396,7 @@
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
         <v>927</v>
       </c>
@@ -12436,7 +12435,7 @@
       <c r="S83" s="37"/>
       <c r="T83" s="37"/>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>927</v>
       </c>
@@ -12475,7 +12474,7 @@
       <c r="S84" s="37"/>
       <c r="T84" s="37"/>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>927</v>
       </c>
@@ -12514,7 +12513,7 @@
       <c r="S85" s="37"/>
       <c r="T85" s="37"/>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>927</v>
       </c>
@@ -12602,7 +12601,7 @@
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>927</v>
       </c>
@@ -12690,7 +12689,7 @@
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
         <v>927</v>
       </c>
@@ -12729,7 +12728,7 @@
       <c r="S90" s="37"/>
       <c r="T90" s="37"/>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>927</v>
       </c>
@@ -12768,7 +12767,7 @@
       <c r="S91" s="37"/>
       <c r="T91" s="37"/>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>927</v>
       </c>
@@ -12807,7 +12806,7 @@
       <c r="S92" s="37"/>
       <c r="T92" s="37"/>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>927</v>
       </c>
@@ -12846,7 +12845,7 @@
       <c r="S93" s="37"/>
       <c r="T93" s="37"/>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
         <v>927</v>
       </c>
@@ -12936,7 +12935,7 @@
       <c r="S95" s="37"/>
       <c r="T95" s="37"/>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
         <v>927</v>
       </c>
@@ -12975,7 +12974,7 @@
       <c r="S96" s="37"/>
       <c r="T96" s="37"/>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>927</v>
       </c>
@@ -13016,7 +13015,7 @@
       <c r="S97" s="37"/>
       <c r="T97" s="37"/>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>927</v>
       </c>
@@ -13055,7 +13054,7 @@
       <c r="S98" s="37"/>
       <c r="T98" s="37"/>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
         <v>927</v>
       </c>
@@ -13094,7 +13093,7 @@
       <c r="S99" s="37"/>
       <c r="T99" s="37"/>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
         <v>927</v>
       </c>
@@ -13134,7 +13133,7 @@
       <c r="S100" s="37"/>
       <c r="T100" s="37"/>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
         <v>927</v>
       </c>
@@ -13172,7 +13171,7 @@
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
         <v>927</v>
       </c>
@@ -13212,7 +13211,7 @@
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
         <v>927</v>
       </c>
@@ -13246,7 +13245,7 @@
       <c r="S103" s="37"/>
       <c r="T103" s="37"/>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
         <v>927</v>
       </c>
@@ -13279,7 +13278,7 @@
       <c r="S104" s="37"/>
       <c r="T104" s="37"/>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
         <v>927</v>
       </c>
@@ -13312,7 +13311,7 @@
       <c r="S105" s="37"/>
       <c r="T105" s="37"/>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
         <v>927</v>
       </c>
@@ -13345,7 +13344,7 @@
       <c r="S106" s="37"/>
       <c r="T106" s="37"/>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
         <v>927</v>
       </c>
@@ -13378,7 +13377,7 @@
       <c r="S107" s="37"/>
       <c r="T107" s="37"/>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="35" t="s">
         <v>927</v>
       </c>
@@ -13411,7 +13410,7 @@
       <c r="S108" s="37"/>
       <c r="T108" s="37"/>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="35" t="s">
         <v>927</v>
       </c>
@@ -13444,7 +13443,7 @@
       <c r="S109" s="37"/>
       <c r="T109" s="37"/>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="35" t="s">
         <v>927</v>
       </c>
@@ -13477,7 +13476,7 @@
       <c r="S110" s="37"/>
       <c r="T110" s="37"/>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="35" t="s">
         <v>927</v>
       </c>
@@ -13510,7 +13509,7 @@
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>927</v>
       </c>
@@ -13543,7 +13542,7 @@
       <c r="S112" s="37"/>
       <c r="T112" s="37"/>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="35" t="s">
         <v>927</v>
       </c>
@@ -13576,7 +13575,7 @@
       <c r="S113" s="37"/>
       <c r="T113" s="37"/>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="35" t="s">
         <v>927</v>
       </c>
@@ -13609,7 +13608,7 @@
       <c r="S114" s="37"/>
       <c r="T114" s="37"/>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="35" t="s">
         <v>927</v>
       </c>
@@ -13684,7 +13683,7 @@
       <c r="S116" s="37"/>
       <c r="T116" s="37"/>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
         <v>927</v>
       </c>
@@ -13717,7 +13716,7 @@
       <c r="S117" s="37"/>
       <c r="T117" s="37"/>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
         <v>927</v>
       </c>
@@ -13750,7 +13749,7 @@
       <c r="S118" s="37"/>
       <c r="T118" s="37"/>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
         <v>927</v>
       </c>
@@ -13867,7 +13866,7 @@
       <c r="S121" s="37"/>
       <c r="T121" s="37"/>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
         <v>927</v>
       </c>
@@ -13900,7 +13899,7 @@
       <c r="S122" s="37"/>
       <c r="T122" s="37"/>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
         <v>927</v>
       </c>
@@ -13933,7 +13932,7 @@
       <c r="S123" s="37"/>
       <c r="T123" s="37"/>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="35" t="s">
         <v>927</v>
       </c>
@@ -14008,7 +14007,7 @@
       <c r="S125" s="37"/>
       <c r="T125" s="37"/>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
         <v>927</v>
       </c>
@@ -14083,7 +14082,7 @@
       <c r="S127" s="37"/>
       <c r="T127" s="37"/>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
         <v>927</v>
       </c>
@@ -14158,7 +14157,7 @@
       <c r="S129" s="37"/>
       <c r="T129" s="37"/>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
         <v>927</v>
       </c>
@@ -14233,7 +14232,7 @@
       <c r="S131" s="37"/>
       <c r="T131" s="37"/>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
         <v>927</v>
       </c>
@@ -14308,7 +14307,7 @@
       <c r="S133" s="37"/>
       <c r="T133" s="37"/>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="35" t="s">
         <v>927</v>
       </c>
@@ -14341,7 +14340,7 @@
       <c r="S134" s="37"/>
       <c r="T134" s="37"/>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="35" t="s">
         <v>927</v>
       </c>
@@ -14374,7 +14373,7 @@
       <c r="S135" s="37"/>
       <c r="T135" s="37"/>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="35" t="s">
         <v>927</v>
       </c>
@@ -14407,7 +14406,7 @@
       <c r="S136" s="37"/>
       <c r="T136" s="37"/>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="35" t="s">
         <v>927</v>
       </c>
@@ -14440,7 +14439,7 @@
       <c r="S137" s="37"/>
       <c r="T137" s="37"/>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="35" t="s">
         <v>927</v>
       </c>
@@ -14473,7 +14472,7 @@
       <c r="S138" s="37"/>
       <c r="T138" s="37"/>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
         <v>927</v>
       </c>
@@ -14506,7 +14505,7 @@
       <c r="S139" s="37"/>
       <c r="T139" s="37"/>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="35" t="s">
         <v>927</v>
       </c>
@@ -14539,7 +14538,7 @@
       <c r="S140" s="37"/>
       <c r="T140" s="37"/>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="35" t="s">
         <v>927</v>
       </c>
@@ -14572,7 +14571,7 @@
       <c r="S141" s="37"/>
       <c r="T141" s="37"/>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="35" t="s">
         <v>927</v>
       </c>
@@ -14689,7 +14688,7 @@
       <c r="S144" s="37"/>
       <c r="T144" s="37"/>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="35" t="s">
         <v>927</v>
       </c>
@@ -14730,7 +14729,7 @@
       <c r="S145" s="37"/>
       <c r="T145" s="37"/>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="35" t="s">
         <v>927</v>
       </c>
@@ -14769,7 +14768,7 @@
       <c r="S146" s="37"/>
       <c r="T146" s="37"/>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="35" t="s">
         <v>927</v>
       </c>
@@ -14810,7 +14809,7 @@
       <c r="S147" s="37"/>
       <c r="T147" s="37"/>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="35" t="s">
         <v>927</v>
       </c>
@@ -14851,7 +14850,7 @@
       <c r="S148" s="37"/>
       <c r="T148" s="37"/>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="35" t="s">
         <v>927</v>
       </c>
@@ -14892,7 +14891,7 @@
       <c r="S149" s="37"/>
       <c r="T149" s="37"/>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
         <v>927</v>
       </c>
@@ -14933,7 +14932,7 @@
       <c r="S150" s="37"/>
       <c r="T150" s="37"/>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="35" t="s">
         <v>927</v>
       </c>
@@ -15019,7 +15018,7 @@
       <c r="S152" s="37"/>
       <c r="T152" s="37"/>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="35" t="s">
         <v>927</v>
       </c>
@@ -15060,7 +15059,7 @@
       <c r="S153" s="37"/>
       <c r="T153" s="37"/>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="35" t="s">
         <v>927</v>
       </c>
@@ -15101,7 +15100,7 @@
       <c r="S154" s="37"/>
       <c r="T154" s="37"/>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="35" t="s">
         <v>927</v>
       </c>
@@ -15234,7 +15233,7 @@
       <c r="S157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" s="35" t="s">
         <v>927</v>
       </c>
@@ -15273,7 +15272,7 @@
       <c r="S158" s="37"/>
       <c r="T158" s="37"/>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" s="35" t="s">
         <v>927</v>
       </c>
@@ -15314,7 +15313,7 @@
       <c r="S159" s="37"/>
       <c r="T159" s="37"/>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" s="35" t="s">
         <v>927</v>
       </c>
@@ -15353,7 +15352,7 @@
       <c r="S160" s="37"/>
       <c r="T160" s="37"/>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" s="35" t="s">
         <v>927</v>
       </c>
@@ -15394,7 +15393,7 @@
       <c r="S161" s="37"/>
       <c r="T161" s="37"/>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" s="35" t="s">
         <v>927</v>
       </c>
@@ -15433,7 +15432,7 @@
       <c r="S162" s="37"/>
       <c r="T162" s="37"/>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" s="35" t="s">
         <v>927</v>
       </c>
@@ -15472,7 +15471,7 @@
       <c r="S163" s="37"/>
       <c r="T163" s="37"/>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" s="35" t="s">
         <v>927</v>
       </c>
@@ -15511,7 +15510,7 @@
       <c r="S164" s="37"/>
       <c r="T164" s="37"/>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" s="35" t="s">
         <v>927</v>
       </c>
@@ -15550,7 +15549,7 @@
       <c r="S165" s="37"/>
       <c r="T165" s="37"/>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
         <v>927</v>
       </c>
@@ -15589,7 +15588,7 @@
       <c r="S166" s="37"/>
       <c r="T166" s="37"/>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" s="35" t="s">
         <v>927</v>
       </c>
@@ -15630,7 +15629,7 @@
       <c r="S167" s="37"/>
       <c r="T167" s="37"/>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" s="35" t="s">
         <v>927</v>
       </c>
@@ -15669,7 +15668,7 @@
       <c r="S168" s="37"/>
       <c r="T168" s="37"/>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="35" t="s">
         <v>927</v>
       </c>
@@ -15708,7 +15707,7 @@
       <c r="S169" s="37"/>
       <c r="T169" s="37"/>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" s="35" t="s">
         <v>927</v>
       </c>
@@ -15747,7 +15746,7 @@
       <c r="S170" s="37"/>
       <c r="T170" s="37"/>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" s="35" t="s">
         <v>927</v>
       </c>
@@ -15786,7 +15785,7 @@
       <c r="S171" s="37"/>
       <c r="T171" s="37"/>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" s="35" t="s">
         <v>927</v>
       </c>
@@ -15825,7 +15824,7 @@
       <c r="S172" s="37"/>
       <c r="T172" s="37"/>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
         <v>927</v>
       </c>
@@ -15864,7 +15863,7 @@
       <c r="S173" s="37"/>
       <c r="T173" s="37"/>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" s="35" t="s">
         <v>927</v>
       </c>
@@ -15903,7 +15902,7 @@
       <c r="S174" s="37"/>
       <c r="T174" s="37"/>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" s="35" t="s">
         <v>927</v>
       </c>
@@ -15944,7 +15943,7 @@
       <c r="S175" s="37"/>
       <c r="T175" s="37"/>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" s="35" t="s">
         <v>927</v>
       </c>
@@ -16032,7 +16031,7 @@
       <c r="S177" s="37"/>
       <c r="T177" s="37"/>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" s="35" t="s">
         <v>927</v>
       </c>
@@ -16071,7 +16070,7 @@
       <c r="S178" s="37"/>
       <c r="T178" s="37"/>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" s="35" t="s">
         <v>927</v>
       </c>
@@ -16157,7 +16156,7 @@
       <c r="S180" s="37"/>
       <c r="T180" s="37"/>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
         <v>927</v>
       </c>
@@ -16243,7 +16242,7 @@
       <c r="S182" s="37"/>
       <c r="T182" s="37"/>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" s="35" t="s">
         <v>927</v>
       </c>
@@ -16282,7 +16281,7 @@
       <c r="S183" s="37"/>
       <c r="T183" s="37"/>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" s="35" t="s">
         <v>927</v>
       </c>
@@ -16323,7 +16322,7 @@
       <c r="S184" s="37"/>
       <c r="T184" s="37"/>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" s="35" t="s">
         <v>927</v>
       </c>
@@ -16362,7 +16361,7 @@
       <c r="S185" s="37"/>
       <c r="T185" s="37"/>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" s="35" t="s">
         <v>927</v>
       </c>
@@ -16401,7 +16400,7 @@
       <c r="S186" s="37"/>
       <c r="T186" s="37"/>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" s="35" t="s">
         <v>927</v>
       </c>
@@ -16440,7 +16439,7 @@
       <c r="S187" s="37"/>
       <c r="T187" s="37"/>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" s="35" t="s">
         <v>927</v>
       </c>
@@ -16479,7 +16478,7 @@
       <c r="S188" s="37"/>
       <c r="T188" s="37"/>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" s="35" t="s">
         <v>927</v>
       </c>
@@ -16518,7 +16517,7 @@
       <c r="S189" s="37"/>
       <c r="T189" s="37"/>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" s="35" t="s">
         <v>927</v>
       </c>
@@ -16559,7 +16558,7 @@
       <c r="S190" s="37"/>
       <c r="T190" s="37"/>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" s="35" t="s">
         <v>927</v>
       </c>
@@ -16598,7 +16597,7 @@
       <c r="S191" s="37"/>
       <c r="T191" s="37"/>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" s="35" t="s">
         <v>927</v>
       </c>
@@ -16637,7 +16636,7 @@
       <c r="S192" s="37"/>
       <c r="T192" s="37"/>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" s="35" t="s">
         <v>927</v>
       </c>
@@ -16676,7 +16675,7 @@
       <c r="S193" s="37"/>
       <c r="T193" s="37"/>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" s="35" t="s">
         <v>927</v>
       </c>
@@ -16717,7 +16716,7 @@
       <c r="S194" s="37"/>
       <c r="T194" s="37"/>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" s="35" t="s">
         <v>927</v>
       </c>
@@ -16803,7 +16802,7 @@
       <c r="S196" s="37"/>
       <c r="T196" s="37"/>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" s="35" t="s">
         <v>927</v>
       </c>
@@ -16889,7 +16888,7 @@
       <c r="S198" s="37"/>
       <c r="T198" s="37"/>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" s="35" t="s">
         <v>927</v>
       </c>
@@ -16975,7 +16974,7 @@
       <c r="S200" s="37"/>
       <c r="T200" s="37"/>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" s="35" t="s">
         <v>927</v>
       </c>
@@ -17061,7 +17060,7 @@
       <c r="S202" s="37"/>
       <c r="T202" s="37"/>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" s="35" t="s">
         <v>927</v>
       </c>
@@ -17100,7 +17099,7 @@
       <c r="S203" s="37"/>
       <c r="T203" s="37"/>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" s="35" t="s">
         <v>927</v>
       </c>
@@ -17141,7 +17140,7 @@
       <c r="S204" s="37"/>
       <c r="T204" s="37"/>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="35" t="s">
         <v>927</v>
       </c>
@@ -17180,7 +17179,7 @@
       <c r="S205" s="37"/>
       <c r="T205" s="37"/>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" s="35" t="s">
         <v>927</v>
       </c>
@@ -17266,7 +17265,7 @@
       <c r="S207" s="37"/>
       <c r="T207" s="37"/>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" s="35" t="s">
         <v>927</v>
       </c>
@@ -17305,7 +17304,7 @@
       <c r="S208" s="37"/>
       <c r="T208" s="37"/>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" s="35" t="s">
         <v>927</v>
       </c>
@@ -17344,7 +17343,7 @@
       <c r="S209" s="37"/>
       <c r="T209" s="37"/>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" s="35" t="s">
         <v>927</v>
       </c>
@@ -17430,7 +17429,7 @@
       <c r="S211" s="37"/>
       <c r="T211" s="37"/>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" s="35" t="s">
         <v>927</v>
       </c>
@@ -17469,7 +17468,7 @@
       <c r="S212" s="37"/>
       <c r="T212" s="37"/>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" s="35" t="s">
         <v>927</v>
       </c>
@@ -17508,7 +17507,7 @@
       <c r="S213" s="37"/>
       <c r="T213" s="37"/>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214" s="35" t="s">
         <v>927</v>
       </c>
@@ -17547,7 +17546,7 @@
       <c r="S214" s="37"/>
       <c r="T214" s="37"/>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215" s="35" t="s">
         <v>927</v>
       </c>
@@ -17680,7 +17679,7 @@
       <c r="S217" s="37"/>
       <c r="T217" s="37"/>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" s="35" t="s">
         <v>927</v>
       </c>
@@ -17719,7 +17718,7 @@
       <c r="S218" s="37"/>
       <c r="T218" s="37"/>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" s="35" t="s">
         <v>927</v>
       </c>
@@ -17805,7 +17804,7 @@
       <c r="S220" s="37"/>
       <c r="T220" s="37"/>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" s="35" t="s">
         <v>927</v>
       </c>
@@ -17844,7 +17843,7 @@
       <c r="S221" s="37"/>
       <c r="T221" s="37"/>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" s="35" t="s">
         <v>927</v>
       </c>
@@ -17885,7 +17884,7 @@
       <c r="S222" s="37"/>
       <c r="T222" s="37"/>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" s="35" t="s">
         <v>927</v>
       </c>
@@ -17924,7 +17923,7 @@
       <c r="S223" s="37"/>
       <c r="T223" s="37"/>
     </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224" s="35" t="s">
         <v>927</v>
       </c>
@@ -17965,7 +17964,7 @@
       <c r="S224" s="37"/>
       <c r="T224" s="37"/>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" s="35" t="s">
         <v>927</v>
       </c>
@@ -18006,7 +18005,7 @@
       <c r="S225" s="37"/>
       <c r="T225" s="37"/>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" s="35" t="s">
         <v>927</v>
       </c>
@@ -18047,7 +18046,7 @@
       <c r="S226" s="37"/>
       <c r="T226" s="37"/>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" s="35" t="s">
         <v>927</v>
       </c>
@@ -18081,7 +18080,7 @@
       <c r="S227" s="37"/>
       <c r="T227" s="37"/>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" s="35" t="s">
         <v>927</v>
       </c>
@@ -18121,7 +18120,7 @@
       <c r="S228" s="37"/>
       <c r="T228" s="37"/>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" s="35" t="s">
         <v>927</v>
       </c>
@@ -18208,7 +18207,7 @@
       <c r="S230" s="37"/>
       <c r="T230" s="37"/>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" s="35" t="s">
         <v>927</v>
       </c>
@@ -18246,7 +18245,7 @@
       <c r="S231" s="37"/>
       <c r="T231" s="37"/>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" s="35" t="s">
         <v>927</v>
       </c>
@@ -18286,7 +18285,7 @@
       <c r="S232" s="37"/>
       <c r="T232" s="37"/>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" s="35" t="s">
         <v>927</v>
       </c>
@@ -18326,7 +18325,7 @@
       <c r="S233" s="37"/>
       <c r="T233" s="37"/>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" s="35" t="s">
         <v>927</v>
       </c>
@@ -18413,7 +18412,7 @@
       <c r="S235" s="37"/>
       <c r="T235" s="37"/>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" s="35" t="s">
         <v>927</v>
       </c>
@@ -18451,7 +18450,7 @@
       <c r="S236" s="37"/>
       <c r="T236" s="37"/>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" s="35" t="s">
         <v>927</v>
       </c>
@@ -18491,7 +18490,7 @@
       <c r="S237" s="37"/>
       <c r="T237" s="37"/>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238" s="35" t="s">
         <v>927</v>
       </c>
@@ -18529,7 +18528,7 @@
       <c r="S238" s="37"/>
       <c r="T238" s="37"/>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" s="35" t="s">
         <v>927</v>
       </c>
@@ -18569,7 +18568,7 @@
       <c r="S239" s="37"/>
       <c r="T239" s="37"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" s="35" t="s">
         <v>927</v>
       </c>
@@ -18607,7 +18606,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="37"/>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" s="35" t="s">
         <v>927</v>
       </c>
@@ -18647,7 +18646,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="37"/>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242" s="35" t="s">
         <v>927</v>
       </c>
@@ -18685,7 +18684,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="37"/>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243" s="35" t="s">
         <v>927</v>
       </c>
@@ -18723,7 +18722,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="37"/>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" s="35" t="s">
         <v>927</v>
       </c>
@@ -18761,7 +18760,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="37"/>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" s="35" t="s">
         <v>927</v>
       </c>
@@ -18799,7 +18798,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="37"/>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" s="35" t="s">
         <v>927</v>
       </c>
@@ -18837,7 +18836,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="37"/>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" s="35" t="s">
         <v>927</v>
       </c>
@@ -18879,7 +18878,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="37"/>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248" s="35" t="s">
         <v>927</v>
       </c>
@@ -18917,7 +18916,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="37"/>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249" s="35" t="s">
         <v>927</v>
       </c>
@@ -18957,7 +18956,7 @@
       <c r="S249" s="18"/>
       <c r="T249" s="37"/>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" s="35" t="s">
         <v>927</v>
       </c>
@@ -18995,7 +18994,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="37"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" s="35" t="s">
         <v>927</v>
       </c>
@@ -19035,7 +19034,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="37"/>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" s="35" t="s">
         <v>927</v>
       </c>
@@ -19068,7 +19067,7 @@
       <c r="K252" s="18"/>
       <c r="T252" s="37"/>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253" s="35" t="s">
         <v>927</v>
       </c>
@@ -19108,7 +19107,7 @@
       <c r="S253" s="37"/>
       <c r="T253" s="37"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" s="35" t="s">
         <v>927</v>
       </c>
@@ -19146,7 +19145,7 @@
       <c r="S254" s="37"/>
       <c r="T254" s="37"/>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" s="35" t="s">
         <v>927</v>
       </c>
@@ -19184,7 +19183,7 @@
       <c r="S255" s="37"/>
       <c r="T255" s="37"/>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="35" t="s">
         <v>927</v>
       </c>
@@ -19269,7 +19268,7 @@
       <c r="S257" s="37"/>
       <c r="T257" s="37"/>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258" s="35" t="s">
         <v>927</v>
       </c>
@@ -19307,7 +19306,7 @@
       <c r="S258" s="37"/>
       <c r="T258" s="37"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" s="35" t="s">
         <v>927</v>
       </c>
@@ -19347,7 +19346,7 @@
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" s="35" t="s">
         <v>927</v>
       </c>
@@ -19387,7 +19386,7 @@
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" s="35" t="s">
         <v>927</v>
       </c>
@@ -19476,7 +19475,7 @@
       <c r="S262" s="37"/>
       <c r="T262" s="37"/>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" s="35" t="s">
         <v>927</v>
       </c>
@@ -19509,7 +19508,7 @@
       <c r="S263" s="37"/>
       <c r="T263" s="37"/>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264" s="35" t="s">
         <v>927</v>
       </c>
@@ -19548,7 +19547,7 @@
       <c r="S264" s="37"/>
       <c r="T264" s="37"/>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" s="35" t="s">
         <v>927</v>
       </c>
@@ -19587,7 +19586,7 @@
       <c r="S265" s="37"/>
       <c r="T265" s="37"/>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266" s="35" t="s">
         <v>927</v>
       </c>
@@ -19673,7 +19672,7 @@
       <c r="S267" s="37"/>
       <c r="T267" s="37"/>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268" s="35" t="s">
         <v>927</v>
       </c>
@@ -19712,7 +19711,7 @@
       <c r="S268" s="37"/>
       <c r="T268" s="37"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" s="35" t="s">
         <v>927</v>
       </c>
@@ -19753,7 +19752,7 @@
       <c r="S269" s="37"/>
       <c r="T269" s="37"/>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270" s="35" t="s">
         <v>927</v>
       </c>
@@ -19792,7 +19791,7 @@
       <c r="S270" s="37"/>
       <c r="T270" s="37"/>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" s="35" t="s">
         <v>927</v>
       </c>
@@ -19831,7 +19830,7 @@
       <c r="S271" s="37"/>
       <c r="T271" s="37"/>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272" s="35" t="s">
         <v>927</v>
       </c>
@@ -19872,7 +19871,7 @@
       <c r="S272" s="37"/>
       <c r="T272" s="37"/>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" s="35" t="s">
         <v>927</v>
       </c>
@@ -19913,7 +19912,7 @@
       <c r="S273" s="37"/>
       <c r="T273" s="37"/>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274" s="35" t="s">
         <v>927</v>
       </c>
@@ -19999,7 +19998,7 @@
       <c r="S275" s="37"/>
       <c r="T275" s="37"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276" s="35" t="s">
         <v>927</v>
       </c>
@@ -20038,7 +20037,7 @@
       <c r="S276" s="37"/>
       <c r="T276" s="37"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277" s="35" t="s">
         <v>927</v>
       </c>
@@ -20077,7 +20076,7 @@
       <c r="S277" s="37"/>
       <c r="T277" s="37"/>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278" s="35" t="s">
         <v>927</v>
       </c>
@@ -20163,7 +20162,7 @@
       <c r="S279" s="37"/>
       <c r="T279" s="37"/>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280" s="35" t="s">
         <v>927</v>
       </c>
@@ -20202,7 +20201,7 @@
       <c r="S280" s="37"/>
       <c r="T280" s="37"/>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281" s="35" t="s">
         <v>927</v>
       </c>
@@ -20243,7 +20242,7 @@
       <c r="S281" s="37"/>
       <c r="T281" s="37"/>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282" s="35" t="s">
         <v>927</v>
       </c>
@@ -20282,7 +20281,7 @@
       <c r="S282" s="37"/>
       <c r="T282" s="37"/>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283" s="35" t="s">
         <v>927</v>
       </c>
@@ -20321,7 +20320,7 @@
       <c r="S283" s="37"/>
       <c r="T283" s="37"/>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284" s="35" t="s">
         <v>927</v>
       </c>
@@ -20360,7 +20359,7 @@
       <c r="S284" s="37"/>
       <c r="T284" s="37"/>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" s="35" t="s">
         <v>927</v>
       </c>
@@ -20449,7 +20448,7 @@
       <c r="S286" s="37"/>
       <c r="T286" s="37"/>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287" s="35" t="s">
         <v>927</v>
       </c>
@@ -20488,7 +20487,7 @@
       <c r="S287" s="37"/>
       <c r="T287" s="37"/>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288" s="35" t="s">
         <v>927</v>
       </c>
@@ -20529,7 +20528,7 @@
       <c r="S288" s="37"/>
       <c r="T288" s="37"/>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289" s="35" t="s">
         <v>927</v>
       </c>
@@ -20615,7 +20614,7 @@
       <c r="S290" s="37"/>
       <c r="T290" s="37"/>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291" s="35" t="s">
         <v>927</v>
       </c>
@@ -20701,7 +20700,7 @@
       <c r="S292" s="37"/>
       <c r="T292" s="37"/>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293" s="35" t="s">
         <v>927</v>
       </c>
@@ -20740,7 +20739,7 @@
       <c r="S293" s="37"/>
       <c r="T293" s="37"/>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294" s="35" t="s">
         <v>927</v>
       </c>
@@ -20779,7 +20778,7 @@
       <c r="S294" s="37"/>
       <c r="T294" s="37"/>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295" s="35" t="s">
         <v>927</v>
       </c>
@@ -20818,7 +20817,7 @@
       <c r="S295" s="37"/>
       <c r="T295" s="37"/>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296" s="35" t="s">
         <v>927</v>
       </c>
@@ -20857,7 +20856,7 @@
       <c r="S296" s="37"/>
       <c r="T296" s="37"/>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297" s="35" t="s">
         <v>927</v>
       </c>
@@ -20898,7 +20897,7 @@
       <c r="S297" s="37"/>
       <c r="T297" s="37"/>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298" s="35" t="s">
         <v>927</v>
       </c>
@@ -20984,7 +20983,7 @@
       <c r="S299" s="37"/>
       <c r="T299" s="37"/>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300" s="35" t="s">
         <v>927</v>
       </c>
@@ -21023,7 +21022,7 @@
       <c r="S300" s="37"/>
       <c r="T300" s="37"/>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301" s="35" t="s">
         <v>927</v>
       </c>
@@ -21062,7 +21061,7 @@
       <c r="S301" s="37"/>
       <c r="T301" s="37"/>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302" s="35" t="s">
         <v>927</v>
       </c>
@@ -21148,7 +21147,7 @@
       <c r="S303" s="37"/>
       <c r="T303" s="37"/>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304" s="35" t="s">
         <v>927</v>
       </c>
@@ -21187,7 +21186,7 @@
       <c r="S304" s="37"/>
       <c r="T304" s="37"/>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305" s="35" t="s">
         <v>927</v>
       </c>
@@ -21273,7 +21272,7 @@
       <c r="S306" s="37"/>
       <c r="T306" s="37"/>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307" s="35" t="s">
         <v>927</v>
       </c>
@@ -21314,7 +21313,7 @@
       <c r="S307" s="37"/>
       <c r="T307" s="37"/>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A308" s="35" t="s">
         <v>927</v>
       </c>
@@ -21353,7 +21352,7 @@
       <c r="S308" s="37"/>
       <c r="T308" s="37"/>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309" s="35" t="s">
         <v>927</v>
       </c>
@@ -21394,7 +21393,7 @@
       <c r="S309" s="37"/>
       <c r="T309" s="37"/>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A310" s="35" t="s">
         <v>927</v>
       </c>
@@ -21428,7 +21427,7 @@
       <c r="S310" s="37"/>
       <c r="T310" s="37"/>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G311" s="24">
         <f>SUM(G2:G310)</f>
         <v>10000</v>
@@ -23584,13 +23583,7 @@
       <c r="T496" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T311" xr:uid="{E13AE4F8-AA0C-4A3E-AD8B-06064A1FBBBD}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="HC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T311" xr:uid="{E13AE4F8-AA0C-4A3E-AD8B-06064A1FBBBD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
+++ b/R/20180103_LN3 Deep Completed (House14)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{055282DE-57F6-4D09-A9F7-EC9052CB85E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C9DCC04-A23F-40E8-914F-109A2E894FF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17258" windowHeight="6890" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="1019">
   <si>
     <t>SURVEY_ID</t>
   </si>
@@ -2861,9 +2861,6 @@
     <t>Lobophytum</t>
   </si>
   <si>
-    <t>ZOO</t>
-  </si>
-  <si>
     <t>MER</t>
   </si>
   <si>
@@ -2871,9 +2868,6 @@
   </si>
   <si>
     <t>Halimeda</t>
-  </si>
-  <si>
-    <t>COR</t>
   </si>
   <si>
     <t>Corallimorph</t>
@@ -3368,7 +3362,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3552,6 +3546,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9061,10 +9058,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H312" sqref="H312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -9126,7 +9124,7 @@
         <v>901</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>895</v>
@@ -9141,7 +9139,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>927</v>
       </c>
@@ -9172,13 +9170,13 @@
         <v>930</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
@@ -9188,7 +9186,7 @@
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>927</v>
       </c>
@@ -9227,7 +9225,7 @@
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>927</v>
       </c>
@@ -9266,7 +9264,7 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>927</v>
       </c>
@@ -9307,7 +9305,7 @@
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>927</v>
       </c>
@@ -9346,7 +9344,7 @@
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>927</v>
       </c>
@@ -9387,7 +9385,7 @@
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>927</v>
       </c>
@@ -9426,7 +9424,7 @@
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>927</v>
       </c>
@@ -9465,7 +9463,7 @@
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>927</v>
       </c>
@@ -9504,7 +9502,7 @@
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>927</v>
       </c>
@@ -9545,7 +9543,7 @@
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>927</v>
       </c>
@@ -9584,7 +9582,7 @@
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>927</v>
       </c>
@@ -9623,7 +9621,7 @@
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>927</v>
       </c>
@@ -9656,10 +9654,10 @@
         <v>906</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -9669,7 +9667,7 @@
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>927</v>
       </c>
@@ -9715,7 +9713,7 @@
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
         <v>927</v>
       </c>
@@ -9754,7 +9752,7 @@
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>927</v>
       </c>
@@ -9793,7 +9791,7 @@
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
         <v>927</v>
       </c>
@@ -9832,7 +9830,7 @@
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>927</v>
       </c>
@@ -9873,7 +9871,7 @@
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>927</v>
       </c>
@@ -9912,7 +9910,7 @@
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
         <v>927</v>
       </c>
@@ -9953,7 +9951,7 @@
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
         <v>927</v>
       </c>
@@ -9992,7 +9990,7 @@
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>927</v>
       </c>
@@ -10028,10 +10026,10 @@
         <v>934</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
@@ -10041,7 +10039,7 @@
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
         <v>927</v>
       </c>
@@ -10080,7 +10078,7 @@
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
         <v>927</v>
       </c>
@@ -10119,7 +10117,7 @@
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>927</v>
       </c>
@@ -10159,7 +10157,7 @@
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
         <v>927</v>
       </c>
@@ -10193,7 +10191,7 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="64" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
@@ -10203,7 +10201,7 @@
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>927</v>
       </c>
@@ -10242,7 +10240,7 @@
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>927</v>
       </c>
@@ -10281,7 +10279,7 @@
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
         <v>927</v>
       </c>
@@ -10320,7 +10318,7 @@
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35" t="s">
         <v>927</v>
       </c>
@@ -10353,13 +10351,13 @@
         <v>940</v>
       </c>
       <c r="K31" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L31" s="20" t="s">
         <v>1005</v>
       </c>
-      <c r="L31" s="20" t="s">
-        <v>1007</v>
-      </c>
       <c r="M31" s="62" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
@@ -10369,7 +10367,7 @@
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
         <v>927</v>
       </c>
@@ -10408,7 +10406,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
         <v>927</v>
       </c>
@@ -10448,7 +10446,7 @@
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
         <v>927</v>
       </c>
@@ -10487,7 +10485,7 @@
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>927</v>
       </c>
@@ -10526,7 +10524,7 @@
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>927</v>
       </c>
@@ -10588,8 +10586,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>942</v>
+      <c r="H37" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -10604,7 +10602,7 @@
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>927</v>
       </c>
@@ -10643,7 +10641,7 @@
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
         <v>927</v>
       </c>
@@ -10682,7 +10680,7 @@
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
         <v>927</v>
       </c>
@@ -10721,7 +10719,7 @@
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>927</v>
       </c>
@@ -10760,7 +10758,7 @@
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
         <v>927</v>
       </c>
@@ -10799,7 +10797,7 @@
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
         <v>927</v>
       </c>
@@ -10838,7 +10836,7 @@
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
         <v>927</v>
       </c>
@@ -10866,10 +10864,10 @@
       </c>
       <c r="I44" s="16"/>
       <c r="J44" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L44" s="20" t="s">
         <v>921</v>
@@ -10885,7 +10883,7 @@
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
         <v>927</v>
       </c>
@@ -10924,7 +10922,7 @@
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>927</v>
       </c>
@@ -10963,7 +10961,7 @@
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>927</v>
       </c>
@@ -11002,7 +11000,7 @@
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>927</v>
       </c>
@@ -11041,7 +11039,7 @@
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35" t="s">
         <v>927</v>
       </c>
@@ -11068,7 +11066,7 @@
         <v>79</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J49" s="16"/>
       <c r="L49" s="20"/>
@@ -11081,7 +11079,7 @@
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35" t="s">
         <v>927</v>
       </c>
@@ -11119,7 +11117,7 @@
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
         <v>927</v>
       </c>
@@ -11157,7 +11155,7 @@
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35" t="s">
         <v>927</v>
       </c>
@@ -11195,7 +11193,7 @@
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
         <v>927</v>
       </c>
@@ -11233,7 +11231,7 @@
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35" t="s">
         <v>927</v>
       </c>
@@ -11271,7 +11269,7 @@
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>927</v>
       </c>
@@ -11309,7 +11307,7 @@
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35" t="s">
         <v>927</v>
       </c>
@@ -11347,7 +11345,7 @@
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
         <v>927</v>
       </c>
@@ -11385,7 +11383,7 @@
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35" t="s">
         <v>927</v>
       </c>
@@ -11423,7 +11421,7 @@
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35" t="s">
         <v>927</v>
       </c>
@@ -11461,7 +11459,7 @@
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35" t="s">
         <v>927</v>
       </c>
@@ -11522,11 +11520,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>946</v>
+      <c r="H61" s="65" t="s">
+        <v>911</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J61" s="21"/>
       <c r="L61" s="20"/>
@@ -11539,7 +11537,7 @@
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
         <v>927</v>
       </c>
@@ -11577,7 +11575,7 @@
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
         <v>927</v>
       </c>
@@ -11617,7 +11615,7 @@
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>927</v>
       </c>
@@ -11658,7 +11656,7 @@
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
         <v>927</v>
       </c>
@@ -11698,7 +11696,7 @@
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35" t="s">
         <v>927</v>
       </c>
@@ -11739,7 +11737,7 @@
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>927</v>
       </c>
@@ -11779,7 +11777,7 @@
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>927</v>
       </c>
@@ -11818,7 +11816,7 @@
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
         <v>927</v>
       </c>
@@ -11857,7 +11855,7 @@
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
         <v>927</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>909</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>909</v>
@@ -11906,7 +11904,7 @@
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
         <v>927</v>
       </c>
@@ -11945,7 +11943,7 @@
       <c r="S71" s="37"/>
       <c r="T71" s="37"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
         <v>927</v>
       </c>
@@ -11975,7 +11973,7 @@
         <v>909</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>909</v>
@@ -11994,7 +11992,7 @@
       <c r="S72" s="37"/>
       <c r="T72" s="37"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
         <v>927</v>
       </c>
@@ -12024,7 +12022,7 @@
         <v>909</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>909</v>
@@ -12043,7 +12041,7 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>927</v>
       </c>
@@ -12082,7 +12080,7 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
         <v>927</v>
       </c>
@@ -12121,7 +12119,7 @@
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>927</v>
       </c>
@@ -12162,7 +12160,7 @@
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>927</v>
       </c>
@@ -12201,7 +12199,7 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>927</v>
       </c>
@@ -12240,7 +12238,7 @@
       <c r="S78" s="37"/>
       <c r="T78" s="37"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
         <v>927</v>
       </c>
@@ -12279,7 +12277,7 @@
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>927</v>
       </c>
@@ -12318,7 +12316,7 @@
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
         <v>927</v>
       </c>
@@ -12357,7 +12355,7 @@
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>927</v>
       </c>
@@ -12396,7 +12394,7 @@
       <c r="S82" s="37"/>
       <c r="T82" s="37"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
         <v>927</v>
       </c>
@@ -12435,7 +12433,7 @@
       <c r="S83" s="37"/>
       <c r="T83" s="37"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>927</v>
       </c>
@@ -12474,7 +12472,7 @@
       <c r="S84" s="37"/>
       <c r="T84" s="37"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>927</v>
       </c>
@@ -12513,7 +12511,7 @@
       <c r="S85" s="37"/>
       <c r="T85" s="37"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>927</v>
       </c>
@@ -12552,7 +12550,7 @@
       <c r="S86" s="37"/>
       <c r="T86" s="37"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
         <v>927</v>
       </c>
@@ -12588,10 +12586,10 @@
         <v>918</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M87" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N87" s="37"/>
       <c r="O87" s="37"/>
@@ -12601,7 +12599,7 @@
       <c r="S87" s="37"/>
       <c r="T87" s="37"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>927</v>
       </c>
@@ -12640,7 +12638,7 @@
       <c r="S88" s="37"/>
       <c r="T88" s="37"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
         <v>927</v>
       </c>
@@ -12676,10 +12674,10 @@
         <v>918</v>
       </c>
       <c r="L89" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M89" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
@@ -12689,7 +12687,7 @@
       <c r="S89" s="37"/>
       <c r="T89" s="37"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
         <v>927</v>
       </c>
@@ -12728,7 +12726,7 @@
       <c r="S90" s="37"/>
       <c r="T90" s="37"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>927</v>
       </c>
@@ -12767,7 +12765,7 @@
       <c r="S91" s="37"/>
       <c r="T91" s="37"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>927</v>
       </c>
@@ -12806,7 +12804,7 @@
       <c r="S92" s="37"/>
       <c r="T92" s="37"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>927</v>
       </c>
@@ -12845,7 +12843,7 @@
       <c r="S93" s="37"/>
       <c r="T93" s="37"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
         <v>927</v>
       </c>
@@ -12886,7 +12884,7 @@
       <c r="S94" s="37"/>
       <c r="T94" s="37"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
         <v>927</v>
       </c>
@@ -12916,7 +12914,7 @@
         <v>912</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>912</v>
@@ -12935,7 +12933,7 @@
       <c r="S95" s="37"/>
       <c r="T95" s="37"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="35" t="s">
         <v>927</v>
       </c>
@@ -12974,7 +12972,7 @@
       <c r="S96" s="37"/>
       <c r="T96" s="37"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>927</v>
       </c>
@@ -13015,7 +13013,7 @@
       <c r="S97" s="37"/>
       <c r="T97" s="37"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>927</v>
       </c>
@@ -13054,7 +13052,7 @@
       <c r="S98" s="37"/>
       <c r="T98" s="37"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="35" t="s">
         <v>927</v>
       </c>
@@ -13093,7 +13091,7 @@
       <c r="S99" s="37"/>
       <c r="T99" s="37"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="35" t="s">
         <v>927</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>79</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J100" s="21"/>
       <c r="L100" s="20"/>
@@ -13133,7 +13131,7 @@
       <c r="S100" s="37"/>
       <c r="T100" s="37"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="35" t="s">
         <v>927</v>
       </c>
@@ -13171,7 +13169,7 @@
       <c r="S101" s="37"/>
       <c r="T101" s="37"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="35" t="s">
         <v>927</v>
       </c>
@@ -13198,7 +13196,7 @@
         <v>79</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J102" s="21"/>
       <c r="L102" s="20"/>
@@ -13211,7 +13209,7 @@
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
         <v>927</v>
       </c>
@@ -13245,7 +13243,7 @@
       <c r="S103" s="37"/>
       <c r="T103" s="37"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="35" t="s">
         <v>927</v>
       </c>
@@ -13278,7 +13276,7 @@
       <c r="S104" s="37"/>
       <c r="T104" s="37"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="35" t="s">
         <v>927</v>
       </c>
@@ -13311,7 +13309,7 @@
       <c r="S105" s="37"/>
       <c r="T105" s="37"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="35" t="s">
         <v>927</v>
       </c>
@@ -13344,7 +13342,7 @@
       <c r="S106" s="37"/>
       <c r="T106" s="37"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="35" t="s">
         <v>927</v>
       </c>
@@ -13377,7 +13375,7 @@
       <c r="S107" s="37"/>
       <c r="T107" s="37"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="35" t="s">
         <v>927</v>
       </c>
@@ -13410,7 +13408,7 @@
       <c r="S108" s="37"/>
       <c r="T108" s="37"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="35" t="s">
         <v>927</v>
       </c>
@@ -13443,7 +13441,7 @@
       <c r="S109" s="37"/>
       <c r="T109" s="37"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="35" t="s">
         <v>927</v>
       </c>
@@ -13476,7 +13474,7 @@
       <c r="S110" s="37"/>
       <c r="T110" s="37"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="35" t="s">
         <v>927</v>
       </c>
@@ -13509,7 +13507,7 @@
       <c r="S111" s="37"/>
       <c r="T111" s="37"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>927</v>
       </c>
@@ -13542,7 +13540,7 @@
       <c r="S112" s="37"/>
       <c r="T112" s="37"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="35" t="s">
         <v>927</v>
       </c>
@@ -13575,7 +13573,7 @@
       <c r="S113" s="37"/>
       <c r="T113" s="37"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="35" t="s">
         <v>927</v>
       </c>
@@ -13608,7 +13606,7 @@
       <c r="S114" s="37"/>
       <c r="T114" s="37"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="35" t="s">
         <v>927</v>
       </c>
@@ -13641,7 +13639,7 @@
       <c r="S115" s="37"/>
       <c r="T115" s="37"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="35" t="s">
         <v>927</v>
       </c>
@@ -13683,7 +13681,7 @@
       <c r="S116" s="37"/>
       <c r="T116" s="37"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="35" t="s">
         <v>927</v>
       </c>
@@ -13716,7 +13714,7 @@
       <c r="S117" s="37"/>
       <c r="T117" s="37"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="35" t="s">
         <v>927</v>
       </c>
@@ -13749,7 +13747,7 @@
       <c r="S118" s="37"/>
       <c r="T118" s="37"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="35" t="s">
         <v>927</v>
       </c>
@@ -13782,7 +13780,7 @@
       <c r="S119" s="37"/>
       <c r="T119" s="37"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="35" t="s">
         <v>927</v>
       </c>
@@ -13824,7 +13822,7 @@
       <c r="S120" s="37"/>
       <c r="T120" s="37"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="35" t="s">
         <v>927</v>
       </c>
@@ -13855,7 +13853,7 @@
         <v>101</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L121" s="41" t="s">
         <v>921</v>
@@ -13866,7 +13864,7 @@
       <c r="S121" s="37"/>
       <c r="T121" s="37"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="35" t="s">
         <v>927</v>
       </c>
@@ -13899,7 +13897,7 @@
       <c r="S122" s="37"/>
       <c r="T122" s="37"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="35" t="s">
         <v>927</v>
       </c>
@@ -13932,7 +13930,7 @@
       <c r="S123" s="37"/>
       <c r="T123" s="37"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="35" t="s">
         <v>927</v>
       </c>
@@ -13965,7 +13963,7 @@
       <c r="S124" s="37"/>
       <c r="T124" s="37"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="35" t="s">
         <v>927</v>
       </c>
@@ -13999,15 +13997,15 @@
         <v>906</v>
       </c>
       <c r="L125" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M125" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="S125" s="37"/>
       <c r="T125" s="37"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
         <v>927</v>
       </c>
@@ -14040,7 +14038,7 @@
       <c r="S126" s="37"/>
       <c r="T126" s="37"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="35" t="s">
         <v>927</v>
       </c>
@@ -14071,7 +14069,7 @@
         <v>118</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L127" s="18" t="s">
         <v>921</v>
@@ -14082,7 +14080,7 @@
       <c r="S127" s="37"/>
       <c r="T127" s="37"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="35" t="s">
         <v>927</v>
       </c>
@@ -14115,7 +14113,7 @@
       <c r="S128" s="37"/>
       <c r="T128" s="37"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="35" t="s">
         <v>927</v>
       </c>
@@ -14146,7 +14144,7 @@
         <v>123</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L129" s="18" t="s">
         <v>921</v>
@@ -14157,7 +14155,7 @@
       <c r="S129" s="37"/>
       <c r="T129" s="37"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="35" t="s">
         <v>927</v>
       </c>
@@ -14190,7 +14188,7 @@
       <c r="S130" s="37"/>
       <c r="T130" s="37"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="35" t="s">
         <v>927</v>
       </c>
@@ -14221,18 +14219,18 @@
         <v>127</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="L131" s="41" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M131" s="62" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="S131" s="37"/>
       <c r="T131" s="37"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
         <v>927</v>
       </c>
@@ -14265,7 +14263,7 @@
       <c r="S132" s="37"/>
       <c r="T132" s="37"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="35" t="s">
         <v>927</v>
       </c>
@@ -14307,7 +14305,7 @@
       <c r="S133" s="37"/>
       <c r="T133" s="37"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35" t="s">
         <v>927</v>
       </c>
@@ -14340,7 +14338,7 @@
       <c r="S134" s="37"/>
       <c r="T134" s="37"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35" t="s">
         <v>927</v>
       </c>
@@ -14373,7 +14371,7 @@
       <c r="S135" s="37"/>
       <c r="T135" s="37"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35" t="s">
         <v>927</v>
       </c>
@@ -14406,7 +14404,7 @@
       <c r="S136" s="37"/>
       <c r="T136" s="37"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35" t="s">
         <v>927</v>
       </c>
@@ -14439,7 +14437,7 @@
       <c r="S137" s="37"/>
       <c r="T137" s="37"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35" t="s">
         <v>927</v>
       </c>
@@ -14472,7 +14470,7 @@
       <c r="S138" s="37"/>
       <c r="T138" s="37"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
         <v>927</v>
       </c>
@@ -14505,7 +14503,7 @@
       <c r="S139" s="37"/>
       <c r="T139" s="37"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35" t="s">
         <v>927</v>
       </c>
@@ -14538,7 +14536,7 @@
       <c r="S140" s="37"/>
       <c r="T140" s="37"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="35" t="s">
         <v>927</v>
       </c>
@@ -14571,7 +14569,7 @@
       <c r="S141" s="37"/>
       <c r="T141" s="37"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="35" t="s">
         <v>927</v>
       </c>
@@ -14599,7 +14597,7 @@
       <c r="S142" s="37"/>
       <c r="T142" s="37"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="35" t="s">
         <v>927</v>
       </c>
@@ -14627,7 +14625,7 @@
       </c>
       <c r="I143" s="56"/>
       <c r="J143" s="56" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="K143" s="18" t="s">
         <v>912</v>
@@ -14641,7 +14639,7 @@
       <c r="S143" s="37"/>
       <c r="T143" s="37"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="35" t="s">
         <v>927</v>
       </c>
@@ -14669,16 +14667,16 @@
       </c>
       <c r="I144" s="56"/>
       <c r="J144" s="56" t="s">
+        <v>976</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="L144" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="K144" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="L144" s="18" t="s">
-        <v>980</v>
-      </c>
       <c r="M144" s="18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="N144" s="37"/>
       <c r="O144" s="37"/>
@@ -14688,7 +14686,7 @@
       <c r="S144" s="37"/>
       <c r="T144" s="37"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="35" t="s">
         <v>927</v>
       </c>
@@ -14716,7 +14714,7 @@
       </c>
       <c r="I145" s="56"/>
       <c r="J145" s="56" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="K145" s="18"/>
       <c r="L145" s="18"/>
@@ -14729,7 +14727,7 @@
       <c r="S145" s="37"/>
       <c r="T145" s="37"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="35" t="s">
         <v>927</v>
       </c>
@@ -14768,7 +14766,7 @@
       <c r="S146" s="37"/>
       <c r="T146" s="37"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="35" t="s">
         <v>927</v>
       </c>
@@ -14796,7 +14794,7 @@
       </c>
       <c r="I147" s="56"/>
       <c r="J147" s="56" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K147" s="18"/>
       <c r="L147" s="18"/>
@@ -14809,7 +14807,7 @@
       <c r="S147" s="37"/>
       <c r="T147" s="37"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="35" t="s">
         <v>927</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>73</v>
       </c>
       <c r="I148" s="56" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J148" s="56"/>
       <c r="K148" s="18"/>
@@ -14850,7 +14848,7 @@
       <c r="S148" s="37"/>
       <c r="T148" s="37"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="35" t="s">
         <v>927</v>
       </c>
@@ -14877,7 +14875,7 @@
         <v>69</v>
       </c>
       <c r="I149" s="56" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J149" s="56"/>
       <c r="K149" s="18"/>
@@ -14891,7 +14889,7 @@
       <c r="S149" s="37"/>
       <c r="T149" s="37"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="35" t="s">
         <v>927</v>
       </c>
@@ -14932,7 +14930,7 @@
       <c r="S150" s="37"/>
       <c r="T150" s="37"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="35" t="s">
         <v>927</v>
       </c>
@@ -14971,7 +14969,7 @@
       <c r="S151" s="37"/>
       <c r="T151" s="37"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="35" t="s">
         <v>927</v>
       </c>
@@ -14999,10 +14997,10 @@
       </c>
       <c r="I152" s="56"/>
       <c r="J152" s="56" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K152" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L152" s="18" t="s">
         <v>921</v>
@@ -15018,7 +15016,7 @@
       <c r="S152" s="37"/>
       <c r="T152" s="37"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="35" t="s">
         <v>927</v>
       </c>
@@ -15045,7 +15043,7 @@
         <v>73</v>
       </c>
       <c r="I153" s="56" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J153" s="56"/>
       <c r="K153" s="18"/>
@@ -15059,7 +15057,7 @@
       <c r="S153" s="37"/>
       <c r="T153" s="37"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="35" t="s">
         <v>927</v>
       </c>
@@ -15087,7 +15085,7 @@
       </c>
       <c r="I154" s="56"/>
       <c r="J154" s="56" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="K154" s="18"/>
       <c r="L154" s="18"/>
@@ -15100,7 +15098,7 @@
       <c r="S154" s="37"/>
       <c r="T154" s="37"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="35" t="s">
         <v>927</v>
       </c>
@@ -15139,7 +15137,7 @@
       <c r="S155" s="37"/>
       <c r="T155" s="37"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="35" t="s">
         <v>927</v>
       </c>
@@ -15167,7 +15165,7 @@
       </c>
       <c r="I156" s="56"/>
       <c r="J156" s="56" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="K156" s="18" t="s">
         <v>912</v>
@@ -15186,7 +15184,7 @@
       <c r="S156" s="37"/>
       <c r="T156" s="37"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="35" t="s">
         <v>927</v>
       </c>
@@ -15214,16 +15212,16 @@
       </c>
       <c r="I157" s="56"/>
       <c r="J157" s="56" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="K157" s="18" t="s">
         <v>918</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M157" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="N157" s="37"/>
       <c r="O157" s="37"/>
@@ -15233,7 +15231,7 @@
       <c r="S157" s="37"/>
       <c r="T157" s="37"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="35" t="s">
         <v>927</v>
       </c>
@@ -15272,7 +15270,7 @@
       <c r="S158" s="37"/>
       <c r="T158" s="37"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="35" t="s">
         <v>927</v>
       </c>
@@ -15300,7 +15298,7 @@
       </c>
       <c r="I159" s="56"/>
       <c r="J159" s="56" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="K159" s="18"/>
       <c r="L159" s="18"/>
@@ -15313,7 +15311,7 @@
       <c r="S159" s="37"/>
       <c r="T159" s="37"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="35" t="s">
         <v>927</v>
       </c>
@@ -15352,7 +15350,7 @@
       <c r="S160" s="37"/>
       <c r="T160" s="37"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="35" t="s">
         <v>927</v>
       </c>
@@ -15379,7 +15377,7 @@
         <v>73</v>
       </c>
       <c r="I161" s="56" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J161" s="56"/>
       <c r="K161" s="18"/>
@@ -15393,7 +15391,7 @@
       <c r="S161" s="37"/>
       <c r="T161" s="37"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="35" t="s">
         <v>927</v>
       </c>
@@ -15432,7 +15430,7 @@
       <c r="S162" s="37"/>
       <c r="T162" s="37"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="35" t="s">
         <v>927</v>
       </c>
@@ -15471,7 +15469,7 @@
       <c r="S163" s="37"/>
       <c r="T163" s="37"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="35" t="s">
         <v>927</v>
       </c>
@@ -15510,7 +15508,7 @@
       <c r="S164" s="37"/>
       <c r="T164" s="37"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="35" t="s">
         <v>927</v>
       </c>
@@ -15549,7 +15547,7 @@
       <c r="S165" s="37"/>
       <c r="T165" s="37"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
         <v>927</v>
       </c>
@@ -15588,7 +15586,7 @@
       <c r="S166" s="37"/>
       <c r="T166" s="37"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="35" t="s">
         <v>927</v>
       </c>
@@ -15616,7 +15614,7 @@
       </c>
       <c r="I167" s="56"/>
       <c r="J167" s="56" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
@@ -15629,7 +15627,7 @@
       <c r="S167" s="37"/>
       <c r="T167" s="37"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="35" t="s">
         <v>927</v>
       </c>
@@ -15668,7 +15666,7 @@
       <c r="S168" s="37"/>
       <c r="T168" s="37"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="35" t="s">
         <v>927</v>
       </c>
@@ -15707,7 +15705,7 @@
       <c r="S169" s="37"/>
       <c r="T169" s="37"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="35" t="s">
         <v>927</v>
       </c>
@@ -15746,7 +15744,7 @@
       <c r="S170" s="37"/>
       <c r="T170" s="37"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="35" t="s">
         <v>927</v>
       </c>
@@ -15785,7 +15783,7 @@
       <c r="S171" s="37"/>
       <c r="T171" s="37"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="35" t="s">
         <v>927</v>
       </c>
@@ -15824,7 +15822,7 @@
       <c r="S172" s="37"/>
       <c r="T172" s="37"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
         <v>927</v>
       </c>
@@ -15863,7 +15861,7 @@
       <c r="S173" s="37"/>
       <c r="T173" s="37"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="35" t="s">
         <v>927</v>
       </c>
@@ -15902,7 +15900,7 @@
       <c r="S174" s="37"/>
       <c r="T174" s="37"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="35" t="s">
         <v>927</v>
       </c>
@@ -15929,7 +15927,7 @@
         <v>73</v>
       </c>
       <c r="I175" s="56" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J175" s="56"/>
       <c r="K175" s="18"/>
@@ -15943,7 +15941,7 @@
       <c r="S175" s="37"/>
       <c r="T175" s="37"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="35" t="s">
         <v>927</v>
       </c>
@@ -15984,7 +15982,7 @@
       <c r="S176" s="37"/>
       <c r="T176" s="37"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="35" t="s">
         <v>927</v>
       </c>
@@ -16012,16 +16010,16 @@
       </c>
       <c r="I177" s="56"/>
       <c r="J177" s="56" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="K177" s="18" t="s">
         <v>907</v>
       </c>
       <c r="L177" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M177" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="N177" s="37"/>
       <c r="O177" s="37"/>
@@ -16031,7 +16029,7 @@
       <c r="S177" s="37"/>
       <c r="T177" s="37"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="35" t="s">
         <v>927</v>
       </c>
@@ -16070,7 +16068,7 @@
       <c r="S178" s="37"/>
       <c r="T178" s="37"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="35" t="s">
         <v>927</v>
       </c>
@@ -16109,7 +16107,7 @@
       <c r="S179" s="37"/>
       <c r="T179" s="37"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="35" t="s">
         <v>927</v>
       </c>
@@ -16137,7 +16135,7 @@
       </c>
       <c r="I180" s="56"/>
       <c r="J180" s="56" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K180" s="18" t="s">
         <v>913</v>
@@ -16156,7 +16154,7 @@
       <c r="S180" s="37"/>
       <c r="T180" s="37"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
         <v>927</v>
       </c>
@@ -16195,7 +16193,7 @@
       <c r="S181" s="37"/>
       <c r="T181" s="37"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="35" t="s">
         <v>927</v>
       </c>
@@ -16223,16 +16221,16 @@
       </c>
       <c r="I182" s="56"/>
       <c r="J182" s="56" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="K182" s="18" t="s">
         <v>913</v>
       </c>
       <c r="L182" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M182" s="18" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="N182" s="37"/>
       <c r="O182" s="37"/>
@@ -16242,7 +16240,7 @@
       <c r="S182" s="37"/>
       <c r="T182" s="37"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="35" t="s">
         <v>927</v>
       </c>
@@ -16281,7 +16279,7 @@
       <c r="S183" s="37"/>
       <c r="T183" s="37"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="35" t="s">
         <v>927</v>
       </c>
@@ -16308,7 +16306,7 @@
         <v>73</v>
       </c>
       <c r="I184" s="56" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J184" s="56"/>
       <c r="K184" s="18"/>
@@ -16322,7 +16320,7 @@
       <c r="S184" s="37"/>
       <c r="T184" s="37"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="35" t="s">
         <v>927</v>
       </c>
@@ -16361,7 +16359,7 @@
       <c r="S185" s="37"/>
       <c r="T185" s="37"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="35" t="s">
         <v>927</v>
       </c>
@@ -16400,7 +16398,7 @@
       <c r="S186" s="37"/>
       <c r="T186" s="37"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="35" t="s">
         <v>927</v>
       </c>
@@ -16439,7 +16437,7 @@
       <c r="S187" s="37"/>
       <c r="T187" s="37"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="35" t="s">
         <v>927</v>
       </c>
@@ -16478,7 +16476,7 @@
       <c r="S188" s="37"/>
       <c r="T188" s="37"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="35" t="s">
         <v>927</v>
       </c>
@@ -16517,7 +16515,7 @@
       <c r="S189" s="37"/>
       <c r="T189" s="37"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="35" t="s">
         <v>927</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
       <c r="I190" s="56"/>
       <c r="J190" s="56" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
@@ -16558,7 +16556,7 @@
       <c r="S190" s="37"/>
       <c r="T190" s="37"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="35" t="s">
         <v>927</v>
       </c>
@@ -16597,7 +16595,7 @@
       <c r="S191" s="37"/>
       <c r="T191" s="37"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="35" t="s">
         <v>927</v>
       </c>
@@ -16636,7 +16634,7 @@
       <c r="S192" s="37"/>
       <c r="T192" s="37"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="35" t="s">
         <v>927</v>
       </c>
@@ -16675,7 +16673,7 @@
       <c r="S193" s="37"/>
       <c r="T193" s="37"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="35" t="s">
         <v>927</v>
       </c>
@@ -16702,7 +16700,7 @@
         <v>73</v>
       </c>
       <c r="I194" s="56" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J194" s="56"/>
       <c r="K194" s="18"/>
@@ -16716,7 +16714,7 @@
       <c r="S194" s="37"/>
       <c r="T194" s="37"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="35" t="s">
         <v>927</v>
       </c>
@@ -16755,7 +16753,7 @@
       <c r="S195" s="37"/>
       <c r="T195" s="37"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="35" t="s">
         <v>927</v>
       </c>
@@ -16783,7 +16781,7 @@
       </c>
       <c r="I196" s="56"/>
       <c r="J196" s="56" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K196" s="18" t="s">
         <v>912</v>
@@ -16802,7 +16800,7 @@
       <c r="S196" s="37"/>
       <c r="T196" s="37"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="35" t="s">
         <v>927</v>
       </c>
@@ -16841,7 +16839,7 @@
       <c r="S197" s="37"/>
       <c r="T197" s="37"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="35" t="s">
         <v>927</v>
       </c>
@@ -16869,7 +16867,7 @@
       </c>
       <c r="I198" s="56"/>
       <c r="J198" s="56" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K198" s="18" t="s">
         <v>913</v>
@@ -16888,7 +16886,7 @@
       <c r="S198" s="37"/>
       <c r="T198" s="37"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="35" t="s">
         <v>927</v>
       </c>
@@ -16927,7 +16925,7 @@
       <c r="S199" s="37"/>
       <c r="T199" s="37"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="35" t="s">
         <v>927</v>
       </c>
@@ -16955,7 +16953,7 @@
       </c>
       <c r="I200" s="56"/>
       <c r="J200" s="56" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K200" s="18" t="s">
         <v>913</v>
@@ -16974,7 +16972,7 @@
       <c r="S200" s="37"/>
       <c r="T200" s="37"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="35" t="s">
         <v>927</v>
       </c>
@@ -17013,7 +17011,7 @@
       <c r="S201" s="37"/>
       <c r="T201" s="37"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="35" t="s">
         <v>927</v>
       </c>
@@ -17041,7 +17039,7 @@
       </c>
       <c r="I202" s="56"/>
       <c r="J202" s="56" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K202" s="18" t="s">
         <v>913</v>
@@ -17060,7 +17058,7 @@
       <c r="S202" s="37"/>
       <c r="T202" s="37"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="35" t="s">
         <v>927</v>
       </c>
@@ -17099,7 +17097,7 @@
       <c r="S203" s="37"/>
       <c r="T203" s="37"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="35" t="s">
         <v>927</v>
       </c>
@@ -17126,7 +17124,7 @@
         <v>73</v>
       </c>
       <c r="I204" s="56" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J204" s="56"/>
       <c r="K204" s="18"/>
@@ -17140,7 +17138,7 @@
       <c r="S204" s="37"/>
       <c r="T204" s="37"/>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="35" t="s">
         <v>927</v>
       </c>
@@ -17179,7 +17177,7 @@
       <c r="S205" s="37"/>
       <c r="T205" s="37"/>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="35" t="s">
         <v>927</v>
       </c>
@@ -17218,7 +17216,7 @@
       <c r="S206" s="37"/>
       <c r="T206" s="37"/>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="35" t="s">
         <v>927</v>
       </c>
@@ -17246,16 +17244,16 @@
       </c>
       <c r="I207" s="56"/>
       <c r="J207" s="56" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K207" s="18" t="s">
         <v>918</v>
       </c>
       <c r="L207" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M207" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="N207" s="37"/>
       <c r="O207" s="37"/>
@@ -17265,7 +17263,7 @@
       <c r="S207" s="37"/>
       <c r="T207" s="37"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="35" t="s">
         <v>927</v>
       </c>
@@ -17304,7 +17302,7 @@
       <c r="S208" s="37"/>
       <c r="T208" s="37"/>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="35" t="s">
         <v>927</v>
       </c>
@@ -17343,7 +17341,7 @@
       <c r="S209" s="37"/>
       <c r="T209" s="37"/>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="35" t="s">
         <v>927</v>
       </c>
@@ -17382,7 +17380,7 @@
       <c r="S210" s="37"/>
       <c r="T210" s="37"/>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="35" t="s">
         <v>927</v>
       </c>
@@ -17410,7 +17408,7 @@
       </c>
       <c r="I211" s="56"/>
       <c r="J211" s="56" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K211" s="18" t="s">
         <v>909</v>
@@ -17429,7 +17427,7 @@
       <c r="S211" s="37"/>
       <c r="T211" s="37"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="35" t="s">
         <v>927</v>
       </c>
@@ -17468,7 +17466,7 @@
       <c r="S212" s="37"/>
       <c r="T212" s="37"/>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="35" t="s">
         <v>927</v>
       </c>
@@ -17507,7 +17505,7 @@
       <c r="S213" s="37"/>
       <c r="T213" s="37"/>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="35" t="s">
         <v>927</v>
       </c>
@@ -17546,7 +17544,7 @@
       <c r="S214" s="37"/>
       <c r="T214" s="37"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="35" t="s">
         <v>927</v>
       </c>
@@ -17585,7 +17583,7 @@
       <c r="S215" s="37"/>
       <c r="T215" s="37"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="35" t="s">
         <v>927</v>
       </c>
@@ -17613,7 +17611,7 @@
       </c>
       <c r="I216" s="56"/>
       <c r="J216" s="56" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K216" s="18" t="s">
         <v>909</v>
@@ -17632,7 +17630,7 @@
       <c r="S216" s="37"/>
       <c r="T216" s="37"/>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="35" t="s">
         <v>927</v>
       </c>
@@ -17660,7 +17658,7 @@
       </c>
       <c r="I217" s="16"/>
       <c r="J217" s="56" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K217" s="18" t="s">
         <v>909</v>
@@ -17679,7 +17677,7 @@
       <c r="S217" s="37"/>
       <c r="T217" s="37"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="35" t="s">
         <v>927</v>
       </c>
@@ -17718,7 +17716,7 @@
       <c r="S218" s="37"/>
       <c r="T218" s="37"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="35" t="s">
         <v>927</v>
       </c>
@@ -17757,7 +17755,7 @@
       <c r="S219" s="37"/>
       <c r="T219" s="37"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="35" t="s">
         <v>927</v>
       </c>
@@ -17785,7 +17783,7 @@
       </c>
       <c r="I220" s="16"/>
       <c r="J220" s="53" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="K220" s="18" t="s">
         <v>909</v>
@@ -17804,7 +17802,7 @@
       <c r="S220" s="37"/>
       <c r="T220" s="37"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="35" t="s">
         <v>927</v>
       </c>
@@ -17843,7 +17841,7 @@
       <c r="S221" s="37"/>
       <c r="T221" s="37"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="35" t="s">
         <v>927</v>
       </c>
@@ -17870,7 +17868,7 @@
         <v>67</v>
       </c>
       <c r="I222" s="51" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J222" s="54"/>
       <c r="K222" s="18"/>
@@ -17884,7 +17882,7 @@
       <c r="S222" s="37"/>
       <c r="T222" s="37"/>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="35" t="s">
         <v>927</v>
       </c>
@@ -17923,7 +17921,7 @@
       <c r="S223" s="37"/>
       <c r="T223" s="37"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="35" t="s">
         <v>927</v>
       </c>
@@ -17951,7 +17949,7 @@
       </c>
       <c r="I224" s="57"/>
       <c r="J224" s="59" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="K224" s="18"/>
       <c r="L224" s="18"/>
@@ -17964,7 +17962,7 @@
       <c r="S224" s="37"/>
       <c r="T224" s="37"/>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="35" t="s">
         <v>927</v>
       </c>
@@ -17992,7 +17990,7 @@
       </c>
       <c r="I225" s="57"/>
       <c r="J225" s="59" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K225" s="17"/>
       <c r="L225" s="18"/>
@@ -18005,7 +18003,7 @@
       <c r="S225" s="37"/>
       <c r="T225" s="37"/>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="35" t="s">
         <v>927</v>
       </c>
@@ -18033,7 +18031,7 @@
       </c>
       <c r="I226" s="57"/>
       <c r="J226" s="59" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="K226" s="17"/>
       <c r="L226" s="18"/>
@@ -18046,7 +18044,7 @@
       <c r="S226" s="37"/>
       <c r="T226" s="37"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="35" t="s">
         <v>927</v>
       </c>
@@ -18080,7 +18078,7 @@
       <c r="S227" s="37"/>
       <c r="T227" s="37"/>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="35" t="s">
         <v>927</v>
       </c>
@@ -18108,7 +18106,7 @@
       </c>
       <c r="I228" s="16"/>
       <c r="J228" s="53" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K228" s="18"/>
       <c r="M228" s="37"/>
@@ -18120,7 +18118,7 @@
       <c r="S228" s="37"/>
       <c r="T228" s="37"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="35" t="s">
         <v>927</v>
       </c>
@@ -18148,7 +18146,7 @@
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="53" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K229" s="18"/>
       <c r="M229" s="37"/>
@@ -18160,7 +18158,7 @@
       <c r="S229" s="37"/>
       <c r="T229" s="37"/>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="35" t="s">
         <v>927</v>
       </c>
@@ -18188,16 +18186,16 @@
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="53" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="K230" s="18" t="s">
         <v>906</v>
       </c>
       <c r="L230" s="61" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M230" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N230" s="37"/>
       <c r="O230" s="37"/>
@@ -18207,7 +18205,7 @@
       <c r="S230" s="37"/>
       <c r="T230" s="37"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="35" t="s">
         <v>927</v>
       </c>
@@ -18245,7 +18243,7 @@
       <c r="S231" s="37"/>
       <c r="T231" s="37"/>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="35" t="s">
         <v>927</v>
       </c>
@@ -18273,7 +18271,7 @@
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="53" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="K232" s="18"/>
       <c r="M232" s="37"/>
@@ -18285,7 +18283,7 @@
       <c r="S232" s="37"/>
       <c r="T232" s="37"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="35" t="s">
         <v>927</v>
       </c>
@@ -18313,7 +18311,7 @@
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="53" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K233" s="18"/>
       <c r="M233" s="37"/>
@@ -18325,7 +18323,7 @@
       <c r="S233" s="37"/>
       <c r="T233" s="37"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="35" t="s">
         <v>927</v>
       </c>
@@ -18353,7 +18351,7 @@
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="53" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K234" s="18"/>
       <c r="M234" s="37"/>
@@ -18365,7 +18363,7 @@
       <c r="S234" s="37"/>
       <c r="T234" s="37"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="35" t="s">
         <v>927</v>
       </c>
@@ -18393,16 +18391,16 @@
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="53" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K235" s="18" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="L235" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M235" s="61" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="N235" s="37"/>
       <c r="O235" s="37"/>
@@ -18412,7 +18410,7 @@
       <c r="S235" s="37"/>
       <c r="T235" s="37"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="35" t="s">
         <v>927</v>
       </c>
@@ -18450,7 +18448,7 @@
       <c r="S236" s="37"/>
       <c r="T236" s="37"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="35" t="s">
         <v>927</v>
       </c>
@@ -18478,7 +18476,7 @@
       </c>
       <c r="I237" s="16"/>
       <c r="J237" s="53" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K237" s="18"/>
       <c r="M237" s="37"/>
@@ -18490,7 +18488,7 @@
       <c r="S237" s="37"/>
       <c r="T237" s="37"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="35" t="s">
         <v>927</v>
       </c>
@@ -18528,7 +18526,7 @@
       <c r="S238" s="37"/>
       <c r="T238" s="37"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="35" t="s">
         <v>927</v>
       </c>
@@ -18556,7 +18554,7 @@
       </c>
       <c r="I239" s="16"/>
       <c r="J239" s="53" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K239" s="18"/>
       <c r="M239" s="37"/>
@@ -18568,7 +18566,7 @@
       <c r="S239" s="37"/>
       <c r="T239" s="37"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="35" t="s">
         <v>927</v>
       </c>
@@ -18606,7 +18604,7 @@
       <c r="S240" s="18"/>
       <c r="T240" s="37"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="35" t="s">
         <v>927</v>
       </c>
@@ -18646,7 +18644,7 @@
       <c r="S241" s="18"/>
       <c r="T241" s="37"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="35" t="s">
         <v>927</v>
       </c>
@@ -18684,7 +18682,7 @@
       <c r="S242" s="18"/>
       <c r="T242" s="37"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="35" t="s">
         <v>927</v>
       </c>
@@ -18722,7 +18720,7 @@
       <c r="S243" s="18"/>
       <c r="T243" s="37"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="35" t="s">
         <v>927</v>
       </c>
@@ -18760,7 +18758,7 @@
       <c r="S244" s="18"/>
       <c r="T244" s="37"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="35" t="s">
         <v>927</v>
       </c>
@@ -18798,7 +18796,7 @@
       <c r="S245" s="18"/>
       <c r="T245" s="37"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="35" t="s">
         <v>927</v>
       </c>
@@ -18836,7 +18834,7 @@
       <c r="S246" s="18"/>
       <c r="T246" s="37"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="35" t="s">
         <v>927</v>
       </c>
@@ -18866,7 +18864,7 @@
         <v>931</v>
       </c>
       <c r="J247" s="53" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K247" s="18"/>
       <c r="M247" s="14"/>
@@ -18878,7 +18876,7 @@
       <c r="S247" s="18"/>
       <c r="T247" s="37"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="35" t="s">
         <v>927</v>
       </c>
@@ -18916,7 +18914,7 @@
       <c r="S248" s="18"/>
       <c r="T248" s="37"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="35" t="s">
         <v>927</v>
       </c>
@@ -18956,7 +18954,7 @@
       <c r="S249" s="18"/>
       <c r="T249" s="37"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="35" t="s">
         <v>927</v>
       </c>
@@ -18994,7 +18992,7 @@
       <c r="S250" s="18"/>
       <c r="T250" s="37"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="35" t="s">
         <v>927</v>
       </c>
@@ -19022,7 +19020,7 @@
       </c>
       <c r="I251" s="16"/>
       <c r="J251" s="53" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K251" s="18"/>
       <c r="M251" s="14"/>
@@ -19034,7 +19032,7 @@
       <c r="S251" s="18"/>
       <c r="T251" s="37"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="35" t="s">
         <v>927</v>
       </c>
@@ -19062,12 +19060,12 @@
       </c>
       <c r="I252" s="16"/>
       <c r="J252" s="53" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K252" s="18"/>
       <c r="T252" s="37"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="35" t="s">
         <v>927</v>
       </c>
@@ -19095,7 +19093,7 @@
       </c>
       <c r="I253" s="16"/>
       <c r="J253" s="53" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K253" s="18"/>
       <c r="M253" s="37"/>
@@ -19107,7 +19105,7 @@
       <c r="S253" s="37"/>
       <c r="T253" s="37"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="35" t="s">
         <v>927</v>
       </c>
@@ -19145,7 +19143,7 @@
       <c r="S254" s="37"/>
       <c r="T254" s="37"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="35" t="s">
         <v>927</v>
       </c>
@@ -19183,7 +19181,7 @@
       <c r="S255" s="37"/>
       <c r="T255" s="37"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="35" t="s">
         <v>927</v>
       </c>
@@ -19221,7 +19219,7 @@
       <c r="S256" s="37"/>
       <c r="T256" s="37"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="35" t="s">
         <v>927</v>
       </c>
@@ -19249,7 +19247,7 @@
       </c>
       <c r="I257" s="16"/>
       <c r="J257" s="53" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K257" s="18" t="s">
         <v>909</v>
@@ -19268,7 +19266,7 @@
       <c r="S257" s="37"/>
       <c r="T257" s="37"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="35" t="s">
         <v>927</v>
       </c>
@@ -19306,7 +19304,7 @@
       <c r="S258" s="37"/>
       <c r="T258" s="37"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="35" t="s">
         <v>927</v>
       </c>
@@ -19334,7 +19332,7 @@
       </c>
       <c r="I259" s="16"/>
       <c r="J259" s="53" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K259" s="18"/>
       <c r="M259" s="37"/>
@@ -19346,7 +19344,7 @@
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="35" t="s">
         <v>927</v>
       </c>
@@ -19374,7 +19372,7 @@
       </c>
       <c r="I260" s="16"/>
       <c r="J260" s="53" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K260" s="18"/>
       <c r="M260" s="37"/>
@@ -19386,7 +19384,7 @@
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="35" t="s">
         <v>927</v>
       </c>
@@ -19416,7 +19414,7 @@
         <v>931</v>
       </c>
       <c r="J261" s="53" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="K261" s="18"/>
       <c r="M261" s="37"/>
@@ -19428,7 +19426,7 @@
       <c r="S261" s="37"/>
       <c r="T261" s="37"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="35" t="s">
         <v>927</v>
       </c>
@@ -19456,7 +19454,7 @@
       </c>
       <c r="I262" s="16"/>
       <c r="J262" s="53" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K262" s="18" t="s">
         <v>912</v>
@@ -19475,7 +19473,7 @@
       <c r="S262" s="37"/>
       <c r="T262" s="37"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="35" t="s">
         <v>927</v>
       </c>
@@ -19508,7 +19506,7 @@
       <c r="S263" s="37"/>
       <c r="T263" s="37"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="35" t="s">
         <v>927</v>
       </c>
@@ -19547,7 +19545,7 @@
       <c r="S264" s="37"/>
       <c r="T264" s="37"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="35" t="s">
         <v>927</v>
       </c>
@@ -19586,7 +19584,7 @@
       <c r="S265" s="37"/>
       <c r="T265" s="37"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="35" t="s">
         <v>927</v>
       </c>
@@ -19625,7 +19623,7 @@
       <c r="S266" s="37"/>
       <c r="T266" s="37"/>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="35" t="s">
         <v>927</v>
       </c>
@@ -19656,13 +19654,13 @@
         <v>1154</v>
       </c>
       <c r="K267" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="L267" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M267" s="63" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="N267" s="37"/>
       <c r="O267" s="37"/>
@@ -19672,7 +19670,7 @@
       <c r="S267" s="37"/>
       <c r="T267" s="37"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="35" t="s">
         <v>927</v>
       </c>
@@ -19711,7 +19709,7 @@
       <c r="S268" s="37"/>
       <c r="T268" s="37"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="35" t="s">
         <v>927</v>
       </c>
@@ -19752,7 +19750,7 @@
       <c r="S269" s="37"/>
       <c r="T269" s="37"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="35" t="s">
         <v>927</v>
       </c>
@@ -19791,7 +19789,7 @@
       <c r="S270" s="37"/>
       <c r="T270" s="37"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="35" t="s">
         <v>927</v>
       </c>
@@ -19830,7 +19828,7 @@
       <c r="S271" s="37"/>
       <c r="T271" s="37"/>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="35" t="s">
         <v>927</v>
       </c>
@@ -19871,7 +19869,7 @@
       <c r="S272" s="37"/>
       <c r="T272" s="37"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="35" t="s">
         <v>927</v>
       </c>
@@ -19912,7 +19910,7 @@
       <c r="S273" s="37"/>
       <c r="T273" s="37"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="35" t="s">
         <v>927</v>
       </c>
@@ -19951,7 +19949,7 @@
       <c r="S274" s="37"/>
       <c r="T274" s="37"/>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="35" t="s">
         <v>927</v>
       </c>
@@ -19998,7 +19996,7 @@
       <c r="S275" s="37"/>
       <c r="T275" s="37"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="35" t="s">
         <v>927</v>
       </c>
@@ -20037,7 +20035,7 @@
       <c r="S276" s="37"/>
       <c r="T276" s="37"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="35" t="s">
         <v>927</v>
       </c>
@@ -20076,7 +20074,7 @@
       <c r="S277" s="37"/>
       <c r="T277" s="37"/>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="35" t="s">
         <v>927</v>
       </c>
@@ -20115,7 +20113,7 @@
       <c r="S278" s="37"/>
       <c r="T278" s="37"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="35" t="s">
         <v>927</v>
       </c>
@@ -20162,7 +20160,7 @@
       <c r="S279" s="37"/>
       <c r="T279" s="37"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="35" t="s">
         <v>927</v>
       </c>
@@ -20201,7 +20199,7 @@
       <c r="S280" s="37"/>
       <c r="T280" s="37"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="35" t="s">
         <v>927</v>
       </c>
@@ -20242,7 +20240,7 @@
       <c r="S281" s="37"/>
       <c r="T281" s="37"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="35" t="s">
         <v>927</v>
       </c>
@@ -20281,7 +20279,7 @@
       <c r="S282" s="37"/>
       <c r="T282" s="37"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="35" t="s">
         <v>927</v>
       </c>
@@ -20320,7 +20318,7 @@
       <c r="S283" s="37"/>
       <c r="T283" s="37"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="35" t="s">
         <v>927</v>
       </c>
@@ -20359,7 +20357,7 @@
       <c r="S284" s="37"/>
       <c r="T284" s="37"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="35" t="s">
         <v>927</v>
       </c>
@@ -20401,7 +20399,7 @@
       <c r="S285" s="37"/>
       <c r="T285" s="37"/>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="35" t="s">
         <v>927</v>
       </c>
@@ -20432,13 +20430,13 @@
         <v>1169</v>
       </c>
       <c r="K286" s="18" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="L286" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M286" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="N286" s="37"/>
       <c r="O286" s="37"/>
@@ -20448,7 +20446,7 @@
       <c r="S286" s="37"/>
       <c r="T286" s="37"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="35" t="s">
         <v>927</v>
       </c>
@@ -20487,7 +20485,7 @@
       <c r="S287" s="37"/>
       <c r="T287" s="37"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="35" t="s">
         <v>927</v>
       </c>
@@ -20528,7 +20526,7 @@
       <c r="S288" s="37"/>
       <c r="T288" s="37"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="35" t="s">
         <v>927</v>
       </c>
@@ -20567,7 +20565,7 @@
       <c r="S289" s="37"/>
       <c r="T289" s="37"/>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="35" t="s">
         <v>927</v>
       </c>
@@ -20598,7 +20596,7 @@
         <v>1170</v>
       </c>
       <c r="K290" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L290" s="18" t="s">
         <v>921</v>
@@ -20614,7 +20612,7 @@
       <c r="S290" s="37"/>
       <c r="T290" s="37"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="35" t="s">
         <v>927</v>
       </c>
@@ -20653,7 +20651,7 @@
       <c r="S291" s="37"/>
       <c r="T291" s="37"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="35" t="s">
         <v>927</v>
       </c>
@@ -20687,10 +20685,10 @@
         <v>906</v>
       </c>
       <c r="L292" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M292" s="18" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="N292" s="37"/>
       <c r="O292" s="37"/>
@@ -20700,7 +20698,7 @@
       <c r="S292" s="37"/>
       <c r="T292" s="37"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="35" t="s">
         <v>927</v>
       </c>
@@ -20739,7 +20737,7 @@
       <c r="S293" s="37"/>
       <c r="T293" s="37"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="35" t="s">
         <v>927</v>
       </c>
@@ -20778,7 +20776,7 @@
       <c r="S294" s="37"/>
       <c r="T294" s="37"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="35" t="s">
         <v>927</v>
       </c>
@@ -20817,7 +20815,7 @@
       <c r="S295" s="37"/>
       <c r="T295" s="37"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="35" t="s">
         <v>927</v>
       </c>
@@ -20856,7 +20854,7 @@
       <c r="S296" s="37"/>
       <c r="T296" s="37"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="35" t="s">
         <v>927</v>
       </c>
@@ -20897,7 +20895,7 @@
       <c r="S297" s="37"/>
       <c r="T297" s="37"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="35" t="s">
         <v>927</v>
       </c>
@@ -20936,7 +20934,7 @@
       <c r="S298" s="37"/>
       <c r="T298" s="37"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="35" t="s">
         <v>927</v>
       </c>
@@ -20983,7 +20981,7 @@
       <c r="S299" s="37"/>
       <c r="T299" s="37"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="35" t="s">
         <v>927</v>
       </c>
@@ -21022,7 +21020,7 @@
       <c r="S300" s="37"/>
       <c r="T300" s="37"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="35" t="s">
         <v>927</v>
       </c>
@@ -21061,7 +21059,7 @@
       <c r="S301" s="37"/>
       <c r="T301" s="37"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="35" t="s">
         <v>927</v>
       </c>
@@ -21100,7 +21098,7 @@
       <c r="S302" s="37"/>
       <c r="T302" s="37"/>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="35" t="s">
         <v>927</v>
       </c>
@@ -21131,7 +21129,7 @@
         <v>1176</v>
       </c>
       <c r="K303" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="L303" s="17" t="s">
         <v>925</v>
@@ -21147,7 +21145,7 @@
       <c r="S303" s="37"/>
       <c r="T303" s="37"/>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="35" t="s">
         <v>927</v>
       </c>
@@ -21186,7 +21184,7 @@
       <c r="S304" s="37"/>
       <c r="T304" s="37"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="35" t="s">
         <v>927</v>
       </c>
@@ -21225,7 +21223,7 @@
       <c r="S305" s="37"/>
       <c r="T305" s="37"/>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="35" t="s">
         <v>927</v>
       </c>
@@ -21272,7 +21270,7 @@
       <c r="S306" s="37"/>
       <c r="T306" s="37"/>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="35" t="s">
         <v>927</v>
       </c>
@@ -21313,7 +21311,7 @@
       <c r="S307" s="37"/>
       <c r="T307" s="37"/>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="35" t="s">
         <v>927</v>
       </c>
@@ -21352,7 +21350,7 @@
       <c r="S308" s="37"/>
       <c r="T308" s="37"/>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="35" t="s">
         <v>927</v>
       </c>
@@ -21393,7 +21391,7 @@
       <c r="S309" s="37"/>
       <c r="T309" s="37"/>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="35" t="s">
         <v>927</v>
       </c>
@@ -21427,7 +21425,7 @@
       <c r="S310" s="37"/>
       <c r="T310" s="37"/>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="G311" s="24">
         <f>SUM(G2:G310)</f>
         <v>10000</v>
@@ -23583,7 +23581,14 @@
       <c r="T496" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T311" xr:uid="{E13AE4F8-AA0C-4A3E-AD8B-06064A1FBBBD}"/>
+  <autoFilter ref="A1:T311" xr:uid="{E13AE4F8-AA0C-4A3E-AD8B-06064A1FBBBD}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="COR"/>
+        <filter val="ZOO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
